--- a/scenarios/01_original_data/hubs_distances.xlsx
+++ b/scenarios/01_original_data/hubs_distances.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
-  <si>
-    <t>gossau</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>genève la praille</t>
   </si>
@@ -222,9 +219,6 @@
     <t>zimeysa-meyrin</t>
   </si>
   <si>
-    <t>;genève la praille;val ombré;genève aéroport;nyon;gland;aubonne;tolochenaz-morges;léman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;härkingen;rickenbach-wangen;dulliken süd;suhr;schafisheim;heitersberg;urdorf;zürich aussersihl;zürich nord;zürich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberbüren;gossau;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrücke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dübendorf;schönbühl;bern;bern wankdorf;muri-gümligen;münsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin</t>
-  </si>
-  <si>
     <t>genève la praille;;10.6;15.8;51.4;61.4;87;101.2;119.2;122.4;137.8;156.6;173;221.6;247;273.2;301.4;334.2;381.2;409.2;424.8;428.8;437.84;451.22;475.96;483.54;519.36;532.56;546.76;559.76;572.76;578.16;607.56;613.76;640.76;673.96;695.96;720.96;738.76;460.42;484.42;505.22;535.02;541.62;550.02;454.22;488.62;502.62;510.74;526.04;538.04;337.8;355.1;513.34;523.56;582.36;364.2;376.2;386.1;397.06;414.22;436.22;454.9;386.2;309.2;125.2;133.3;15.4</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>uzwil-oberbüren;695.96;685.36;680.16;644.56;634.56;608.96;594.76;576.76;573.56;558.16;539.36;522.96;474.36;448.96;422.76;394.56;361.76;314.76;286.76;271.16;267.16;258.12;244.74;220;212.42;176.6;163.4;149.2;136.2;123.2;117.8;88.4;82.2;55.2;22;;25;42.8;253.94;277.94;298.74;328.54;335.14;343.54;247.74;282.14;296.14;304.26;319.56;331.56;365.36;382.66;306.86;180.8;122;391.76;403.76;413.66;424.62;441.78;463.78;482.46;413.76;458.76;582.76;590.86;690.16</t>
   </si>
   <si>
-    <t>gossau;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</t>
-  </si>
-  <si>
     <t>st. gallen st. fiden;738.76;728.16;722.96;687.36;677.36;651.76;637.56;619.56;616.36;600.96;582.16;565.76;517.16;491.76;465.56;437.36;404.56;357.56;329.56;313.96;309.96;300.92;287.54;262.8;255.22;219.4;206.2;192;179;166;160.6;131.2;125;98;64.8;42.8;17.8;;296.74;320.74;341.54;371.34;377.94;386.34;290.54;324.94;338.94;347.06;362.36;374.36;408.16;425.46;349.66;223.6;164.8;434.56;446.56;456.46;467.42;484.58;506.58;525.26;456.56;501.56;625.56;633.66;732.96</t>
   </si>
   <si>
@@ -424,6 +415,12 @@
   </si>
   <si>
     <t>zimeysa-meyrin;15.4;4.8;10;45.6;55.6;81.2;95.4;113.4;116.6;132;150.8;167.2;215.8;241.2;267.4;295.6;328.4;375.4;403.4;419;423;432.04;445.42;470.16;477.74;513.56;526.76;540.96;553.96;566.96;572.36;601.76;607.96;634.96;668.16;690.16;715.16;732.96;454.62;478.62;499.42;529.22;535.82;544.22;448.42;482.82;496.82;504.94;520.24;532.24;332;349.3;507.54;517.76;576.56;358.4;370.4;380.3;391.26;408.42;430.42;449.1;380.4;303.4;119.4;127.5;</t>
+  </si>
+  <si>
+    <t>gossaucst</t>
+  </si>
+  <si>
+    <t>gossaucst;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</t>
   </si>
 </sst>
 </file>
@@ -1232,225 +1229,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS11" sqref="BS11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>66</v>
       </c>
       <c r="BT1" t="str">
         <f>CONCATENATE(A1,";",B1,";",C1,";",D1,";",E1,";",F1,";",G1,";",H1,";",I1,";",J1,";",K1,";",L1,";",M1,";",N1,";",O1,";",P1,";",Q1,";",R1,";",S1,";",T1,";",U1,";",V1,";",W1,";",X1,";",Y1,";",Z1,";",AA1,";",AB1,";",AC1,";",AD1,";",AE1,";",AF1,";",AG1,";",AH1,";",AI1,";",AJ1,";",AK1,";",AL1,";",AM1,";",AN1,";",AO1,";",AP1,";",AQ1,";",AR1,";",AS1,";",AT1,";",AU1,";",AV1,";",AW1,";",AX1,";",AY1,";",AZ1,";",BA1,";",BB1,";",BC1,";",BD1,";",BE1,";",BF1,";",BG1,";",BH1,";",BI1,";",BJ1,";",BK1,";",BL1,";",BM1,";",BN1,";",BO1,";",BP1)</f>
-        <v>;genève la praille;val ombré;genève aéroport;nyon;gland;aubonne;tolochenaz-morges;léman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;härkingen;rickenbach-wangen;dulliken süd;suhr;schafisheim;heitersberg;urdorf;zürich aussersihl;zürich nord;zürich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberbüren;gossau;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrücke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dübendorf;schönbühl;bern;bern wankdorf;muri-gümligen;münsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin;genève la praille;val ombré;genève aéroport;nyon;gland;aubonne;tolochenaz-morges;léman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;härkingen;rickenbach-wangen;dulliken süd;suhr;schafisheim;heitersberg;urdorf;zürich aussersihl;zürich nord;zürich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberbüren;gossau;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrücke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dübendorf;schönbühl;bern;bern wankdorf;muri-gümligen;münsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin</v>
+        <v>;genève la praille;val ombré;genève aéroport;nyon;gland;aubonne;tolochenaz-morges;léman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;härkingen;rickenbach-wangen;dulliken süd;suhr;schafisheim;heitersberg;urdorf;zürich aussersihl;zürich nord;zürich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberbüren;gossaucst;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrücke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dübendorf;schönbühl;bern;bern wankdorf;muri-gümligen;münsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin</v>
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>10.6</v>
@@ -1657,7 +1649,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>10.6</v>
@@ -1864,7 +1856,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>15.8</v>
@@ -2071,7 +2063,7 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>51.4</v>
@@ -2278,7 +2270,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>61.399999999999991</v>
@@ -2485,7 +2477,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -2692,7 +2684,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>101.2</v>
@@ -2899,7 +2891,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>119.2</v>
@@ -3106,7 +3098,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>122.4</v>
@@ -3313,7 +3305,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>137.80000000000001</v>
@@ -3520,7 +3512,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>156.6</v>
@@ -3727,7 +3719,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>173</v>
@@ -3934,7 +3926,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>221.6</v>
@@ -4141,7 +4133,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>247</v>
@@ -4348,7 +4340,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>273.2</v>
@@ -4555,7 +4547,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>301.39999999999998</v>
@@ -4762,7 +4754,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>334.2</v>
@@ -4969,7 +4961,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>381.2</v>
@@ -5176,7 +5168,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>409.2</v>
@@ -5383,7 +5375,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>424.8</v>
@@ -5590,7 +5582,7 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>428.8</v>
@@ -5797,7 +5789,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23">
         <v>437.84</v>
@@ -6004,7 +5996,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24">
         <v>451.22</v>
@@ -6211,7 +6203,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>475.96</v>
@@ -6418,7 +6410,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>483.54</v>
@@ -6625,7 +6617,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>519.36</v>
@@ -6832,7 +6824,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>532.55999999999995</v>
@@ -7039,7 +7031,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>546.76</v>
@@ -7246,7 +7238,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>559.76</v>
@@ -7453,7 +7445,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>572.76</v>
@@ -7660,7 +7652,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>578.16</v>
@@ -7867,7 +7859,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33">
         <v>607.55999999999995</v>
@@ -8074,7 +8066,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>613.76</v>
@@ -8281,7 +8273,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>640.76</v>
@@ -8488,7 +8480,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>673.95999999999992</v>
@@ -8695,7 +8687,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>695.95999999999992</v>
@@ -8902,7 +8894,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B38">
         <v>720.95999999999992</v>
@@ -9104,12 +9096,12 @@
       </c>
       <c r="BT38" t="str">
         <f t="shared" si="0"/>
-        <v>gossau;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</v>
+        <v>gossaucst;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</v>
       </c>
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>738.76</v>
@@ -9316,7 +9308,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>460.42</v>
@@ -9523,7 +9515,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41">
         <v>484.42</v>
@@ -9730,7 +9722,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>505.22</v>
@@ -9937,7 +9929,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>535.02</v>
@@ -10144,7 +10136,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44">
         <v>541.62</v>
@@ -10351,7 +10343,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B45">
         <v>550.02</v>
@@ -10558,7 +10550,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B46">
         <v>454.22</v>
@@ -10765,7 +10757,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>488.61999999999989</v>
@@ -10972,7 +10964,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>502.61999999999989</v>
@@ -11179,7 +11171,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>510.74</v>
@@ -11386,7 +11378,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>526.04</v>
@@ -11593,7 +11585,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>538.04</v>
@@ -11800,7 +11792,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B52">
         <v>337.8</v>
@@ -12007,7 +11999,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B53">
         <v>355.1</v>
@@ -12214,7 +12206,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B54">
         <v>513.33999999999992</v>
@@ -12421,7 +12413,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55">
         <v>523.55999999999995</v>
@@ -12628,7 +12620,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>582.36</v>
@@ -12835,7 +12827,7 @@
     </row>
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>364.2</v>
@@ -13042,7 +13034,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58">
         <v>376.2</v>
@@ -13249,7 +13241,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>386.1</v>
@@ -13456,7 +13448,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>397.06</v>
@@ -13663,7 +13655,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>414.22</v>
@@ -13870,7 +13862,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>436.22</v>
@@ -14077,7 +14069,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63">
         <v>454.89999999999992</v>
@@ -14284,7 +14276,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>386.2</v>
@@ -14491,7 +14483,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B65">
         <v>309.2</v>
@@ -14698,7 +14690,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B66">
         <v>125.2</v>
@@ -14905,7 +14897,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>133.30000000000001</v>
@@ -15112,7 +15104,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68">
         <v>15.4</v>

--- a/scenarios/01_original_data/hubs_distances.xlsx
+++ b/scenarios/01_original_data/hubs_distances.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
-  <si>
-    <t>genève la praille</t>
-  </si>
-  <si>
-    <t>val ombré</t>
-  </si>
-  <si>
-    <t>genève aéroport</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>nyon</t>
   </si>
@@ -40,9 +31,6 @@
   </si>
   <si>
     <t>tolochenaz-morges</t>
-  </si>
-  <si>
-    <t>léman</t>
   </si>
   <si>
     <t>aclens</t>
@@ -81,13 +69,7 @@
     <t>neuendorf</t>
   </si>
   <si>
-    <t>härkingen</t>
-  </si>
-  <si>
     <t>rickenbach-wangen</t>
-  </si>
-  <si>
-    <t>dulliken süd</t>
   </si>
   <si>
     <t>suhr</t>
@@ -100,15 +82,6 @@
   </si>
   <si>
     <t>urdorf</t>
-  </si>
-  <si>
-    <t>zürich aussersihl</t>
-  </si>
-  <si>
-    <t>zürich nord</t>
-  </si>
-  <si>
-    <t>zürich flughafen</t>
   </si>
   <si>
     <t>aegert</t>
@@ -126,9 +99,6 @@
     <t>wil</t>
   </si>
   <si>
-    <t>uzwil-oberbüren</t>
-  </si>
-  <si>
     <t>st. gallen st. fiden</t>
   </si>
   <si>
@@ -142,9 +112,6 @@
   </si>
   <si>
     <t>rothenburg</t>
-  </si>
-  <si>
-    <t>emmenbrücke</t>
   </si>
   <si>
     <t>luzern allmend</t>
@@ -180,22 +147,10 @@
     <t>limmatstadt</t>
   </si>
   <si>
-    <t>wangen-dübendorf</t>
-  </si>
-  <si>
-    <t>schönbühl</t>
-  </si>
-  <si>
     <t>bern</t>
   </si>
   <si>
     <t>bern wankdorf</t>
-  </si>
-  <si>
-    <t>muri-gümligen</t>
-  </si>
-  <si>
-    <t>münsingen</t>
   </si>
   <si>
     <t>heimberg-steffisburg</t>
@@ -219,208 +174,52 @@
     <t>zimeysa-meyrin</t>
   </si>
   <si>
-    <t>genève la praille;;10.6;15.8;51.4;61.4;87;101.2;119.2;122.4;137.8;156.6;173;221.6;247;273.2;301.4;334.2;381.2;409.2;424.8;428.8;437.84;451.22;475.96;483.54;519.36;532.56;546.76;559.76;572.76;578.16;607.56;613.76;640.76;673.96;695.96;720.96;738.76;460.42;484.42;505.22;535.02;541.62;550.02;454.22;488.62;502.62;510.74;526.04;538.04;337.8;355.1;513.34;523.56;582.36;364.2;376.2;386.1;397.06;414.22;436.22;454.9;386.2;309.2;125.2;133.3;15.4</t>
-  </si>
-  <si>
-    <t>val ombré;10.6;;5.2;40.8;50.8;76.4;90.6;108.6;111.8;127.2;146;162.4;211;236.4;262.6;290.8;323.6;370.6;398.6;414.2;418.2;427.24;440.62;465.36;472.94;508.76;521.96;536.16;549.16;562.16;567.56;596.96;603.16;630.16;663.36;685.36;710.36;728.16;449.82;473.82;494.62;524.42;531.02;539.42;443.62;478.02;492.02;500.14;515.44;527.44;327.2;344.5;502.74;512.96;571.76;353.6;365.6;375.5;386.46;403.62;425.62;444.3;375.6;298.6;114.6;122.7;4.8</t>
-  </si>
-  <si>
-    <t>genève aéroport;15.8;5.2;;35.6;45.6;71.2;85.4;103.4;106.6;122;140.8;157.2;205.8;231.2;257.4;285.6;318.4;365.4;393.4;409;413;422.04;435.42;460.16;467.74;503.56;516.76;530.96;543.96;556.96;562.36;591.76;597.96;624.96;658.16;680.16;705.16;722.96;444.62;468.62;489.42;519.22;525.82;534.22;438.42;472.82;486.82;494.94;510.24;522.24;322;339.3;497.54;507.76;566.56;348.4;360.4;370.3;381.26;398.42;420.42;439.1;370.4;293.4;109.4;117.5;10</t>
-  </si>
-  <si>
-    <t>nyon;51.4;40.8;35.6;;10;35.6;49.8;67.8;71;86.4;105.2;121.6;170.2;195.6;221.8;250;282.8;329.8;357.8;373.4;377.4;386.44;399.82;424.56;432.14;467.96;481.16;495.36;508.36;521.36;526.76;556.16;562.36;589.36;622.56;644.56;669.56;687.36;409.02;433.02;453.82;483.62;490.22;498.62;402.82;437.22;451.22;459.34;474.64;486.64;286.4;303.7;461.94;472.16;530.96;312.8;324.8;334.7;345.66;362.82;384.82;403.5;334.8;257.8;73.8;81.9;45.6</t>
-  </si>
-  <si>
-    <t>gland;61.4;50.8;45.6;10;;25.6;39.8;57.8;61;76.4;95.2;111.6;160.2;185.6;211.8;240;272.8;319.8;347.8;363.4;367.4;376.44;389.82;414.56;422.14;457.96;471.16;485.36;498.36;511.36;516.76;546.16;552.36;579.36;612.56;634.56;659.56;677.36;399.02;423.02;443.82;473.62;480.22;488.62;392.82;427.22;441.22;449.34;464.64;476.64;276.4;293.7;451.94;462.16;520.96;302.8;314.8;324.7;335.66;352.82;374.82;393.5;324.8;247.8;63.8;71.9;55.6</t>
-  </si>
-  <si>
-    <t>aubonne;87;76.4;71.2;35.6;25.6;;14.2;32.2;35.4;50.8;69.6;86;134.6;160;186.2;214.4;247.2;294.2;322.2;337.8;341.8;350.84;364.22;388.96;396.54;432.36;445.56;459.76;472.76;485.76;491.16;520.56;526.76;553.76;586.96;608.96;633.96;651.76;373.42;397.42;418.22;448.02;454.62;463.02;367.22;401.62;415.62;423.74;439.04;451.04;250.8;268.1;426.34;436.56;495.36;277.2;289.2;299.1;310.06;327.22;349.22;367.9;299.2;222.2;38.2;46.3;81.2</t>
-  </si>
-  <si>
-    <t>tolochenaz-morges;101.2;90.6;85.4;49.8;39.8;14.2;;18;21.2;36.6;55.4;71.8;120.4;145.8;172;200.2;233;280;308;323.6;327.6;336.64;350.02;374.76;382.34;418.16;431.36;445.56;458.56;471.56;476.96;506.36;512.56;539.56;572.76;594.76;619.76;637.56;359.22;383.22;404.02;433.82;440.42;448.82;353.02;387.42;401.42;409.54;424.84;436.84;236.6;253.9;412.14;422.36;481.16;263;275;284.9;295.86;313.02;335.02;353.7;285;208;24;32.1;95.4</t>
-  </si>
-  <si>
-    <t>léman;119.2;108.6;103.4;67.8;57.8;32.2;18;;3.2;18.6;37.4;53.8;102.4;127.8;154;182.2;215;262;290;305.6;309.6;318.64;332.02;356.76;364.34;400.16;413.36;427.56;440.56;453.56;458.96;488.36;494.56;521.56;554.76;576.76;601.76;619.56;341.22;365.22;386.02;415.82;422.42;430.82;335.02;369.42;383.42;391.54;406.84;418.84;218.6;235.9;394.14;404.36;463.16;245;257;266.9;277.86;295.02;317.02;335.7;267;190;6;14.1;113.4</t>
-  </si>
-  <si>
-    <t>aclens;122.4;111.8;106.6;71;61;35.4;21.2;3.2;;15.4;34.2;50.6;99.2;124.6;150.8;179;211.8;258.8;286.8;302.4;306.4;315.44;328.82;353.56;361.14;396.96;410.16;424.36;437.36;450.36;455.76;485.16;491.36;518.36;551.56;573.56;598.56;616.36;338.02;362.02;382.82;412.62;419.22;427.62;331.82;366.22;380.22;388.34;403.64;415.64;215.4;232.7;390.94;401.16;459.96;241.8;253.8;263.7;274.66;291.82;313.82;332.5;263.8;186.8;9.2;17.3;116.6</t>
-  </si>
-  <si>
-    <t>daillens;137.8;127.2;122;86.4;76.4;50.8;36.6;18.6;15.4;;18.8;35.2;83.8;109.2;135.4;163.6;196.4;243.4;271.4;287;291;300.04;313.42;338.16;345.74;381.56;394.76;408.96;421.96;434.96;440.36;469.76;475.96;502.96;536.16;558.16;583.16;600.96;322.62;346.62;367.42;397.22;403.82;412.22;316.42;350.82;364.82;372.94;388.24;400.24;200;217.3;375.54;385.76;444.56;226.4;238.4;248.3;259.26;276.42;298.42;317.1;248.4;171.4;24.6;32.7;132</t>
-  </si>
-  <si>
-    <t>chavorney;156.6;146;140.8;105.2;95.2;69.6;55.4;37.4;34.2;18.8;;16.4;65;90.4;116.6;144.8;177.6;224.6;252.6;268.2;272.2;281.24;294.62;319.36;326.94;362.76;375.96;390.16;403.16;416.16;421.56;450.96;457.16;484.16;517.36;539.36;564.36;582.16;303.82;327.82;348.62;378.42;385.02;393.42;297.62;332.02;346.02;354.14;369.44;381.44;181.2;198.5;356.74;366.96;425.76;207.6;219.6;229.5;240.46;257.62;279.62;298.3;229.6;152.6;43.4;51.5;150.8</t>
-  </si>
-  <si>
-    <t>yverdon;173;162.4;157.2;121.6;111.6;86;71.8;53.8;50.6;35.2;16.4;;48.6;74;100.2;128.4;161.2;208.2;236.2;251.8;255.8;264.84;278.22;302.96;310.54;346.36;359.56;373.76;386.76;399.76;405.16;434.56;440.76;467.76;500.96;522.96;547.96;565.76;287.42;311.42;332.22;362.02;368.62;377.02;281.22;315.62;329.62;337.74;353.04;365.04;164.8;182.1;340.34;350.56;409.36;191.2;203.2;213.1;224.06;241.22;263.22;281.9;213.2;136.2;59.8;67.9;167.2</t>
-  </si>
-  <si>
-    <t>payerne;221.6;211;205.8;170.2;160.2;134.6;120.4;102.4;99.2;83.8;65;48.6;;25.4;51.6;79.8;112.6;159.6;187.6;203.2;207.2;216.24;229.62;254.36;261.94;297.76;310.96;325.16;338.16;351.16;356.56;385.96;392.16;419.16;452.36;474.36;499.36;517.16;238.82;262.82;283.62;313.42;320.02;328.42;232.62;267.02;281.02;289.14;304.44;316.44;116.2;133.5;291.74;301.96;360.76;142.6;154.6;164.5;175.46;192.62;214.62;233.3;164.6;87.6;108.4;116.5;215.8</t>
-  </si>
-  <si>
-    <t>avanches;247;236.4;231.2;195.6;185.6;160;145.8;127.8;124.6;109.2;90.4;74;25.4;;26.2;54.4;87.2;134.2;162.2;177.8;181.8;190.84;204.22;228.96;236.54;272.36;285.56;299.76;312.76;325.76;331.16;360.56;366.76;393.76;426.96;448.96;473.96;491.76;213.42;237.42;258.22;288.02;294.62;303.02;207.22;241.62;255.62;263.74;279.04;291.04;90.8;108.1;266.34;276.56;335.36;117.2;129.2;139.1;150.06;167.22;189.22;207.9;139.2;62.2;133.8;141.9;241.2</t>
-  </si>
-  <si>
-    <t>broye;273.2;262.6;257.4;221.8;211.8;186.2;172;154;150.8;135.4;116.6;100.2;51.6;26.2;;28.2;61;108;136;151.6;155.6;164.64;178.02;202.76;210.34;246.16;259.36;273.56;286.56;299.56;304.96;334.36;340.56;367.56;400.76;422.76;447.76;465.56;187.22;211.22;232.02;261.82;268.42;276.82;181.02;215.42;229.42;237.54;252.84;264.84;64.6;81.9;240.14;250.36;309.16;91;103;112.9;123.86;141.02;163.02;181.7;113;36;160;168.1;267.4</t>
-  </si>
-  <si>
-    <t>kerzers;301.4;290.8;285.6;250;240;214.4;200.2;182.2;179;163.6;144.8;128.4;79.8;54.4;28.2;;32.8;79.8;107.8;123.4;127.4;136.44;149.82;174.56;182.14;217.96;231.16;245.36;258.36;271.36;276.76;306.16;312.36;339.36;372.56;394.56;419.56;437.36;159.02;183.02;203.82;233.62;240.22;248.62;152.82;187.22;201.22;209.34;224.64;236.64;36.4;53.7;211.94;222.16;280.96;62.8;74.8;84.7;95.66;112.82;134.82;153.5;84.8;64.2;188.2;196.3;295.6</t>
-  </si>
-  <si>
-    <t>lyss ort;334.2;323.6;318.4;282.8;272.8;247.2;233;215;211.8;196.4;177.6;161.2;112.6;87.2;61;32.8;;47;75;90.6;94.6;103.64;117.02;141.76;149.34;185.16;198.36;212.56;225.56;238.56;243.96;273.36;279.56;306.56;339.76;361.76;386.76;404.56;126.22;150.22;171.02;200.82;207.42;215.82;120.02;154.42;168.42;176.54;191.84;203.84;3.6;20.9;179.14;189.36;248.16;30;42;51.9;62.86;80.02;102.02;120.7;52;97;221;229.1;328.4</t>
-  </si>
-  <si>
-    <t>solothurn-zuchwil;381.2;370.6;365.4;329.8;319.8;294.2;280;262;258.8;243.4;224.6;208.2;159.6;134.2;108;79.8;47;;28;43.6;47.6;56.64;70.02;94.76;102.34;138.16;151.36;165.56;178.56;191.56;196.96;226.36;232.56;259.56;292.76;314.76;339.76;357.56;79.22;103.22;124.02;153.82;160.42;168.82;73.02;107.42;121.42;129.54;144.84;156.84;50.6;67.9;132.14;142.36;201.16;77;89;98.9;109.86;127.02;149.02;167.7;99;144;268;276.1;375.4</t>
-  </si>
-  <si>
-    <t>niederbipp;409.2;398.6;393.4;357.8;347.8;322.2;308;290;286.8;271.4;252.6;236.2;187.6;162.2;136;107.8;75;28;;15.6;19.6;28.64;42.02;66.76;74.34;110.16;123.36;137.56;150.56;163.56;168.96;198.36;204.56;231.56;264.76;286.76;311.76;329.56;51.22;75.22;96.02;125.82;132.42;140.82;45.02;79.42;93.42;101.54;116.84;128.84;78.6;95.9;104.14;114.36;173.16;105;117;126.9;137.86;155.02;177.02;195.7;127;172;296;304.1;403.4</t>
-  </si>
-  <si>
-    <t>neuendorf;424.8;414.2;409;373.4;363.4;337.8;323.6;305.6;302.4;287;268.2;251.8;203.2;177.8;151.6;123.4;90.6;43.6;15.6;;4;13.04;26.42;51.16;58.74;94.56;107.76;121.96;134.96;147.96;153.36;182.76;188.96;215.96;249.16;271.16;296.16;313.96;35.62;59.62;80.42;110.22;116.82;125.22;29.42;63.82;77.82;85.94;101.24;113.24;94.2;111.5;88.54;98.76;157.56;120.6;132.6;142.5;153.46;170.62;192.62;211.3;142.6;187.6;311.6;319.7;419</t>
-  </si>
-  <si>
-    <t>härkingen;428.8;418.2;413;377.4;367.4;341.8;327.6;309.6;306.4;291;272.2;255.8;207.2;181.8;155.6;127.4;94.6;47.6;19.6;4;;9.04;22.42;47.16;54.74;90.56;103.76;117.96;130.96;143.96;149.36;178.76;184.96;211.96;245.16;267.16;292.16;309.96;31.62;55.62;76.42;106.22;112.82;121.22;25.42;59.82;73.82;81.94;97.24;109.24;98.2;115.5;84.54;94.76;153.56;124.6;136.6;146.5;157.46;174.62;196.62;215.3;146.6;191.6;315.6;323.7;423</t>
-  </si>
-  <si>
-    <t>rickenbach-wangen;437.84;427.24;422.04;386.44;376.44;350.84;336.64;318.64;315.44;300.04;281.24;264.84;216.24;190.84;164.64;136.44;103.64;56.64;28.64;13.04;9.04;;13.38;38.12;45.7;81.52;94.72;108.92;121.92;134.92;140.32;169.72;175.92;202.92;236.12;258.12;283.12;300.92;22.58;46.58;67.38;97.18;103.78;112.18;16.38;50.78;64.78;72.9;88.2;100.2;107.24;124.54;75.5;85.72;144.52;133.64;145.64;155.54;166.5;183.66;205.66;224.34;155.64;200.64;324.64;332.74;432.04</t>
-  </si>
-  <si>
-    <t>dulliken süd;451.22;440.62;435.42;399.82;389.82;364.22;350.02;332.02;328.82;313.42;294.62;278.22;229.62;204.22;178.02;149.82;117.02;70.02;42.02;26.42;22.42;13.38;;24.74;32.32;68.14;81.34;95.54;108.54;121.54;126.94;156.34;162.54;189.54;222.74;244.74;269.74;287.54;9.2;33.2;54;83.8;90.4;98.8;3;37.4;51.4;59.52;74.82;86.82;120.62;137.92;62.12;72.34;131.14;147.02;159.02;168.92;179.88;197.04;219.04;237.72;169.02;214.02;338.02;346.12;445.42</t>
-  </si>
-  <si>
-    <t>suhr;475.96;465.36;460.16;424.56;414.56;388.96;374.76;356.76;353.56;338.16;319.36;302.96;254.36;228.96;202.76;174.56;141.76;94.76;66.76;51.16;47.16;38.12;24.74;;7.58;43.4;56.6;70.8;83.8;96.8;102.2;131.6;137.8;164.8;198;220;245;262.8;33.94;57.94;78.74;108.54;115.14;123.54;27.74;62.14;76.14;84.26;99.56;111.56;145.36;162.66;86.86;47.6;106.4;171.76;183.76;193.66;204.62;221.78;243.78;262.46;193.76;238.76;362.76;370.86;470.16</t>
-  </si>
-  <si>
-    <t>schafisheim;483.54;472.94;467.74;432.14;422.14;396.54;382.34;364.34;361.14;345.74;326.94;310.54;261.94;236.54;210.34;182.14;149.34;102.34;74.34;58.74;54.74;45.7;32.32;7.58;;35.82;49.02;63.22;76.22;89.22;94.62;124.02;130.22;157.22;190.42;212.42;237.42;255.22;41.52;65.52;86.32;116.12;122.72;131.12;35.32;69.72;83.72;91.84;107.14;119.14;152.94;170.24;94.44;40.02;98.82;179.34;191.34;201.24;212.2;229.36;251.36;270.04;201.34;246.34;370.34;378.44;477.74</t>
-  </si>
-  <si>
-    <t>heitersberg;519.36;508.76;503.56;467.96;457.96;432.36;418.16;400.16;396.96;381.56;362.76;346.36;297.76;272.36;246.16;217.96;185.16;138.16;110.16;94.56;90.56;81.52;68.14;43.4;35.82;;13.2;27.4;40.4;53.4;58.8;88.2;94.4;121.4;154.6;176.6;201.6;219.4;77.34;101.34;122.14;151.94;158.54;166.94;71.14;105.54;119.54;127.66;142.96;154.96;188.76;206.06;130.26;4.2;63;215.16;227.16;237.06;248.02;265.18;287.18;305.86;237.16;282.16;406.16;414.26;513.56</t>
-  </si>
-  <si>
-    <t>urdorf;532.56;521.96;516.76;481.16;471.16;445.56;431.36;413.36;410.16;394.76;375.96;359.56;310.96;285.56;259.36;231.16;198.36;151.36;123.36;107.76;103.76;94.72;81.34;56.6;49.02;13.2;;14.2;27.2;40.2;45.6;75;81.2;108.2;141.4;163.4;188.4;206.2;90.54;114.54;135.34;165.14;171.74;180.14;84.34;118.74;132.74;140.86;156.16;168.16;201.96;219.26;143.46;17.4;49.8;228.36;240.36;250.26;261.22;278.38;300.38;319.06;250.36;295.36;419.36;427.46;526.76</t>
-  </si>
-  <si>
-    <t>zürich aussersihl;546.76;536.16;530.96;495.36;485.36;459.76;445.56;427.56;424.36;408.96;390.16;373.76;325.16;299.76;273.56;245.36;212.56;165.56;137.56;121.96;117.96;108.92;95.54;70.8;63.22;27.4;14.2;;13;26;31.4;60.8;67;94;127.2;149.2;174.2;192;104.74;128.74;149.54;179.34;185.94;194.34;98.54;132.94;146.94;155.06;170.36;182.36;216.16;233.46;157.66;31.6;35.6;242.56;254.56;264.46;275.42;292.58;314.58;333.26;264.56;309.56;433.56;441.66;540.96</t>
-  </si>
-  <si>
-    <t>zürich nord;559.76;549.16;543.96;508.36;498.36;472.76;458.56;440.56;437.36;421.96;403.16;386.76;338.16;312.76;286.56;258.36;225.56;178.56;150.56;134.96;130.96;121.92;108.54;83.8;76.22;40.4;27.2;13;;13;18.4;47.8;54;81;114.2;136.2;161.2;179;117.74;141.74;162.54;192.34;198.94;207.34;111.54;145.94;159.94;168.06;183.36;195.36;229.16;246.46;170.66;44.6;22.6;255.56;267.56;277.46;288.42;305.58;327.58;346.26;277.56;322.56;446.56;454.66;553.96</t>
-  </si>
-  <si>
-    <t>zürich flughafen;572.76;562.16;556.96;521.36;511.36;485.76;471.56;453.56;450.36;434.96;416.16;399.76;351.16;325.76;299.56;271.36;238.56;191.56;163.56;147.96;143.96;134.92;121.54;96.8;89.22;53.4;40.2;26;13;;5.4;34.8;41;68;101.2;123.2;148.2;166;130.74;154.74;175.54;205.34;211.94;220.34;124.54;158.94;172.94;181.06;196.36;208.36;242.16;259.46;183.66;57.6;9.6;268.56;280.56;290.46;301.42;318.58;340.58;359.26;290.56;335.56;459.56;467.66;566.96</t>
-  </si>
-  <si>
-    <t>aegert;578.16;567.56;562.36;526.76;516.76;491.16;476.96;458.96;455.76;440.36;421.56;405.16;356.56;331.16;304.96;276.76;243.96;196.96;168.96;153.36;149.36;140.32;126.94;102.2;94.62;58.8;45.6;31.4;18.4;5.4;;29.4;35.6;62.6;95.8;117.8;142.8;160.6;136.14;160.14;180.94;210.74;217.34;225.74;129.94;164.34;178.34;186.46;201.76;213.76;247.56;264.86;189.06;63;4.2;273.96;285.96;295.86;306.82;323.98;345.98;364.66;295.96;340.96;464.96;473.06;572.36</t>
-  </si>
-  <si>
-    <t>winterthur;607.56;596.96;591.76;556.16;546.16;520.56;506.36;488.36;485.16;469.76;450.96;434.56;385.96;360.56;334.36;306.16;273.36;226.36;198.36;182.76;178.76;169.72;156.34;131.6;124.02;88.2;75;60.8;47.8;34.8;29.4;;6.2;33.2;66.4;88.4;113.4;131.2;165.54;189.54;210.34;240.14;246.74;255.14;159.34;193.74;207.74;215.86;231.16;243.16;276.96;294.26;218.46;92.4;33.6;303.36;315.36;325.26;336.22;353.38;375.38;394.06;325.36;370.36;494.36;502.46;601.76</t>
-  </si>
-  <si>
-    <t>winterthur hegi;613.76;603.16;597.96;562.36;552.36;526.76;512.56;494.56;491.36;475.96;457.16;440.76;392.16;366.76;340.56;312.36;279.56;232.56;204.56;188.96;184.96;175.92;162.54;137.8;130.22;94.4;81.2;67;54;41;35.6;6.2;;27;60.2;82.2;107.2;125;171.74;195.74;216.54;246.34;252.94;261.34;165.54;199.94;213.94;222.06;237.36;249.36;283.16;300.46;224.66;98.6;39.8;309.56;321.56;331.46;342.42;359.58;381.58;400.26;331.56;376.56;500.56;508.66;607.96</t>
-  </si>
-  <si>
-    <t>frauenfeld;640.76;630.16;624.96;589.36;579.36;553.76;539.56;521.56;518.36;502.96;484.16;467.76;419.16;393.76;367.56;339.36;306.56;259.56;231.56;215.96;211.96;202.92;189.54;164.8;157.22;121.4;108.2;94;81;68;62.6;33.2;27;;33.2;55.2;80.2;98;198.74;222.74;243.54;273.34;279.94;288.34;192.54;226.94;240.94;249.06;264.36;276.36;310.16;327.46;251.66;125.6;66.8;336.56;348.56;358.46;369.42;386.58;408.58;427.26;358.56;403.56;527.56;535.66;634.96</t>
-  </si>
-  <si>
-    <t>wil;673.96;663.36;658.16;622.56;612.56;586.96;572.76;554.76;551.56;536.16;517.36;500.96;452.36;426.96;400.76;372.56;339.76;292.76;264.76;249.16;245.16;236.12;222.74;198;190.42;154.6;141.4;127.2;114.2;101.2;95.8;66.4;60.2;33.2;;22;47;64.8;231.94;255.94;276.74;306.54;313.14;321.54;225.74;260.14;274.14;282.26;297.56;309.56;343.36;360.66;284.86;158.8;100;369.76;381.76;391.66;402.62;419.78;441.78;460.46;391.76;436.76;560.76;568.86;668.16</t>
-  </si>
-  <si>
-    <t>uzwil-oberbüren;695.96;685.36;680.16;644.56;634.56;608.96;594.76;576.76;573.56;558.16;539.36;522.96;474.36;448.96;422.76;394.56;361.76;314.76;286.76;271.16;267.16;258.12;244.74;220;212.42;176.6;163.4;149.2;136.2;123.2;117.8;88.4;82.2;55.2;22;;25;42.8;253.94;277.94;298.74;328.54;335.14;343.54;247.74;282.14;296.14;304.26;319.56;331.56;365.36;382.66;306.86;180.8;122;391.76;403.76;413.66;424.62;441.78;463.78;482.46;413.76;458.76;582.76;590.86;690.16</t>
-  </si>
-  <si>
-    <t>st. gallen st. fiden;738.76;728.16;722.96;687.36;677.36;651.76;637.56;619.56;616.36;600.96;582.16;565.76;517.16;491.76;465.56;437.36;404.56;357.56;329.56;313.96;309.96;300.92;287.54;262.8;255.22;219.4;206.2;192;179;166;160.6;131.2;125;98;64.8;42.8;17.8;;296.74;320.74;341.54;371.34;377.94;386.34;290.54;324.94;338.94;347.06;362.36;374.36;408.16;425.46;349.66;223.6;164.8;434.56;446.56;456.46;467.42;484.58;506.58;525.26;456.56;501.56;625.56;633.66;732.96</t>
-  </si>
-  <si>
-    <t>oftringen-zofingen;460.42;449.82;444.62;409.02;399.02;373.42;359.22;341.22;338.02;322.62;303.82;287.42;238.82;213.42;187.22;159.02;126.22;79.22;51.22;35.62;31.62;22.58;9.2;33.94;41.52;77.34;90.54;104.74;117.74;130.74;136.14;165.54;171.74;198.74;231.94;253.94;278.94;296.74;;24;44.8;74.6;81.2;89.6;12.2;46.6;60.6;68.72;84.02;96.02;129.82;147.12;71.32;81.54;140.34;156.22;168.22;178.12;189.08;206.24;228.24;246.92;178.22;223.22;347.22;355.32;454.62</t>
-  </si>
-  <si>
-    <t>dagmersellen;484.42;473.82;468.62;433.02;423.02;397.42;383.22;365.22;362.02;346.62;327.82;311.42;262.82;237.42;211.22;183.02;150.22;103.22;75.22;59.62;55.62;46.58;33.2;57.94;65.52;101.34;114.54;128.74;141.74;154.74;160.14;189.54;195.74;222.74;255.94;277.94;302.94;320.74;24;;20.8;50.6;57.2;65.6;36.2;70.6;84.6;92.72;108.02;120.02;153.82;171.12;95.32;105.54;164.34;180.22;192.22;202.12;213.08;230.24;252.24;270.92;202.22;247.22;371.22;379.32;478.62</t>
-  </si>
-  <si>
-    <t>sursee;505.22;494.62;489.42;453.82;443.82;418.22;404.02;386.02;382.82;367.42;348.62;332.22;283.62;258.22;232.02;203.82;171.02;124.02;96.02;80.42;76.42;67.38;54;78.74;86.32;122.14;135.34;149.54;162.54;175.54;180.94;210.34;216.54;243.54;276.74;298.74;323.74;341.54;44.8;20.8;;29.8;36.4;44.8;57;91.4;105.4;113.52;128.82;140.82;174.62;191.92;116.12;126.34;185.14;201.02;213.02;222.92;233.88;251.04;273.04;291.72;223.02;268.02;392.02;400.12;499.42</t>
-  </si>
-  <si>
-    <t>rothenburg;535.02;524.42;519.22;483.62;473.62;448.02;433.82;415.82;412.62;397.22;378.42;362.02;313.42;288.02;261.82;233.62;200.82;153.82;125.82;110.22;106.22;97.18;83.8;108.54;116.12;151.94;165.14;179.34;192.34;205.34;210.74;240.14;246.34;273.34;306.54;328.54;353.54;371.34;74.6;50.6;29.8;;6.6;15;86.8;121.2;135.2;143.32;158.62;170.62;204.42;221.72;145.92;156.14;214.94;230.82;242.82;252.72;263.68;280.84;302.84;321.52;252.82;297.82;421.82;429.92;529.22</t>
-  </si>
-  <si>
-    <t>emmenbrücke;541.62;531.02;525.82;490.22;480.22;454.62;440.42;422.42;419.22;403.82;385.02;368.62;320.02;294.62;268.42;240.22;207.42;160.42;132.42;116.82;112.82;103.78;90.4;115.14;122.72;158.54;171.74;185.94;198.94;211.94;217.34;246.74;252.94;279.94;313.14;335.14;360.14;377.94;81.2;57.2;36.4;6.6;;8.4;93.4;127.8;141.8;149.92;165.22;177.22;211.02;228.32;152.52;162.74;221.54;237.42;249.42;259.32;270.28;287.44;309.44;328.12;259.42;304.42;428.42;436.52;535.82</t>
-  </si>
-  <si>
-    <t>luzern allmend;550.02;539.42;534.22;498.62;488.62;463.02;448.82;430.82;427.62;412.22;393.42;377.02;328.42;303.02;276.82;248.62;215.82;168.82;140.82;125.22;121.22;112.18;98.8;123.54;131.12;166.94;180.14;194.34;207.34;220.34;225.74;255.14;261.34;288.34;321.54;343.54;368.54;386.34;89.6;65.6;44.8;15;8.4;;101.8;136.2;150.2;158.32;173.62;185.62;219.42;236.72;160.92;171.14;229.94;245.82;257.82;267.72;278.68;295.84;317.84;336.52;267.82;312.82;436.82;444.92;544.22</t>
-  </si>
-  <si>
-    <t>dulliken;454.22;443.62;438.42;402.82;392.82;367.22;353.02;335.02;331.82;316.42;297.62;281.22;232.62;207.22;181.02;152.82;120.02;73.02;45.02;29.42;25.42;16.38;3;27.74;35.32;71.14;84.34;98.54;111.54;124.54;129.94;159.34;165.54;192.54;225.74;247.74;272.74;290.54;12.2;36.2;57;86.8;93.4;101.8;;34.4;48.4;56.52;71.82;83.82;123.62;140.92;59.12;75.34;134.14;150.02;162.02;171.92;182.88;200.04;222.04;240.72;172.02;217.02;341.02;349.12;448.42</t>
-  </si>
-  <si>
-    <t>sissach;488.62;478.02;472.82;437.22;427.22;401.62;387.42;369.42;366.22;350.82;332.02;315.62;267.02;241.62;215.42;187.22;154.42;107.42;79.42;63.82;59.82;50.78;37.4;62.14;69.72;105.54;118.74;132.94;145.94;158.94;164.34;193.74;199.94;226.94;260.14;282.14;307.14;324.94;46.6;70.6;91.4;121.2;127.8;136.2;34.4;;14;22.12;37.42;49.42;158.02;175.32;24.72;109.74;168.54;184.42;196.42;206.32;217.28;234.44;256.44;275.12;206.42;251.42;375.42;383.52;482.82</t>
-  </si>
-  <si>
-    <t>liestal;502.62;492.02;486.82;451.22;441.22;415.62;401.42;383.42;380.22;364.82;346.02;329.62;281.02;255.62;229.42;201.22;168.42;121.42;93.42;77.82;73.82;64.78;51.4;76.14;83.72;119.54;132.74;146.94;159.94;172.94;178.34;207.74;213.94;240.94;274.14;296.14;321.14;338.94;60.6;84.6;105.4;135.2;141.8;150.2;48.4;14;;8.12;23.42;35.42;172.02;189.32;10.72;123.74;182.54;198.42;210.42;220.32;231.28;248.44;270.44;289.12;220.42;265.42;389.42;397.52;496.82</t>
-  </si>
-  <si>
-    <t>mayenfels;510.74;500.14;494.94;459.34;449.34;423.74;409.54;391.54;388.34;372.94;354.14;337.74;289.14;263.74;237.54;209.34;176.54;129.54;101.54;85.94;81.94;72.9;59.52;84.26;91.84;127.66;140.86;155.06;168.06;181.06;186.46;215.86;222.06;249.06;282.26;304.26;329.26;347.06;68.72;92.72;113.52;143.32;149.92;158.32;56.52;22.12;8.12;;15.3;27.3;180.14;197.44;2.6;131.86;190.66;206.54;218.54;228.44;239.4;256.56;278.56;297.24;228.54;273.54;397.54;405.64;504.94</t>
-  </si>
-  <si>
-    <t>basel wolf;526.04;515.44;510.24;474.64;464.64;439.04;424.84;406.84;403.64;388.24;369.44;353.04;304.44;279.04;252.84;224.64;191.84;144.84;116.84;101.24;97.24;88.2;74.82;99.56;107.14;142.96;156.16;170.36;183.36;196.36;201.76;231.16;237.36;264.36;297.56;319.56;344.56;362.36;84.02;108.02;128.82;158.62;165.22;173.62;71.82;37.42;23.42;15.3;;12;195.44;212.74;17.9;147.16;205.96;221.84;233.84;243.74;254.7;271.86;293.86;312.54;243.84;288.84;412.84;420.94;520.24</t>
-  </si>
-  <si>
-    <t>basel gateway nord;538.04;527.44;522.24;486.64;476.64;451.04;436.84;418.84;415.64;400.24;381.44;365.04;316.44;291.04;264.84;236.64;203.84;156.84;128.84;113.24;109.24;100.2;86.82;111.56;119.14;154.96;168.16;182.36;195.36;208.36;213.76;243.16;249.36;276.36;309.56;331.56;356.56;374.36;96.02;120.02;140.82;170.62;177.22;185.62;83.82;49.42;35.42;27.3;12;;207.44;224.74;29.9;159.16;217.96;233.84;245.84;255.74;266.7;283.86;305.86;324.54;255.84;300.84;424.84;432.94;532.24</t>
-  </si>
-  <si>
-    <t>lyss;337.8;327.2;322;286.4;276.4;250.8;236.6;218.6;215.4;200;181.2;164.8;116.2;90.8;64.6;36.4;3.6;50.6;78.6;94.2;98.2;107.24;120.62;145.36;152.94;188.76;201.96;216.16;229.16;242.16;247.56;276.96;283.16;310.16;343.36;365.36;390.36;408.16;129.82;153.82;174.62;204.42;211.02;219.42;123.62;158.02;172.02;180.14;195.44;207.44;;17.3;182.74;192.96;251.76;33.6;45.6;55.5;66.46;83.62;105.62;124.3;55.6;100.6;224.6;232.7;332</t>
-  </si>
-  <si>
-    <t>biel/bienne;355.1;344.5;339.3;303.7;293.7;268.1;253.9;235.9;232.7;217.3;198.5;182.1;133.5;108.1;81.9;53.7;20.9;67.9;95.9;111.5;115.5;124.54;137.92;162.66;170.24;206.06;219.26;233.46;246.46;259.46;264.86;294.26;300.46;327.46;360.66;382.66;407.66;425.46;147.12;171.12;191.92;221.72;228.32;236.72;140.92;175.32;189.32;197.44;212.74;224.74;17.3;;200.04;210.26;269.06;50.9;62.9;72.8;83.76;100.92;122.92;141.6;72.9;117.9;241.9;250;349.3</t>
-  </si>
-  <si>
-    <t>pratteln west;513.34;502.74;497.54;461.94;451.94;426.34;412.14;394.14;390.94;375.54;356.74;340.34;291.74;266.34;240.14;211.94;179.14;132.14;104.14;88.54;84.54;75.5;62.12;86.86;94.44;130.26;143.46;157.66;170.66;183.66;189.06;218.46;224.66;251.66;284.86;306.86;331.86;349.66;71.32;95.32;116.12;145.92;152.52;160.92;59.12;24.72;10.72;2.6;17.9;29.9;182.74;200.04;;134.46;193.26;209.14;221.14;231.04;242;259.16;281.16;299.84;231.14;276.14;400.14;408.24;507.54</t>
-  </si>
-  <si>
-    <t>limmatstadt;523.56;512.96;507.76;472.16;462.16;436.56;422.36;404.36;401.16;385.76;366.96;350.56;301.96;276.56;250.36;222.16;189.36;142.36;114.36;98.76;94.76;85.72;72.34;47.6;40.02;4.2;17.4;31.6;44.6;57.6;63;92.4;98.6;125.6;158.8;180.8;205.8;223.6;81.54;105.54;126.34;156.14;162.74;171.14;75.34;109.74;123.74;131.86;147.16;159.16;192.96;210.26;134.46;;67.2;219.36;231.36;241.26;252.22;269.38;291.38;310.06;241.36;286.36;410.36;418.46;517.76</t>
-  </si>
-  <si>
-    <t>wangen-dübendorf;582.36;571.76;566.56;530.96;520.96;495.36;481.16;463.16;459.96;444.56;425.76;409.36;360.76;335.36;309.16;280.96;248.16;201.16;173.16;157.56;153.56;144.52;131.14;106.4;98.82;63;49.8;35.6;22.6;9.6;4.2;33.6;39.8;66.8;100;122;147;164.8;140.34;164.34;185.14;214.94;221.54;229.94;134.14;168.54;182.54;190.66;205.96;217.96;251.76;269.06;193.26;67.2;;278.16;290.16;300.06;311.02;328.18;350.18;368.86;300.16;345.16;469.16;477.26;576.56</t>
-  </si>
-  <si>
-    <t>schönbühl;364.2;353.6;348.4;312.8;302.8;277.2;263;245;241.8;226.4;207.6;191.2;142.6;117.2;91;62.8;30;77;105;120.6;124.6;133.64;147.02;171.76;179.34;215.16;228.36;242.56;255.56;268.56;273.96;303.36;309.56;336.56;369.76;391.76;416.76;434.56;156.22;180.22;201.02;230.82;237.42;245.82;150.02;184.42;198.42;206.54;221.84;233.84;33.6;50.9;209.14;219.36;278.16;;12;21.9;32.86;50.02;72.02;90.7;22;127;251;259.1;358.4</t>
-  </si>
-  <si>
-    <t>bern;376.2;365.6;360.4;324.8;314.8;289.2;275;257;253.8;238.4;219.6;203.2;154.6;129.2;103;74.8;42;89;117;132.6;136.6;145.64;159.02;183.76;191.34;227.16;240.36;254.56;267.56;280.56;285.96;315.36;321.56;348.56;381.76;403.76;428.76;446.56;168.22;192.22;213.02;242.82;249.42;257.82;162.02;196.42;210.42;218.54;233.84;245.84;45.6;62.9;221.14;231.36;290.16;12;;9.9;20.86;38.02;60.02;78.7;10;139;263;271.1;370.4</t>
-  </si>
-  <si>
-    <t>bern wankdorf;386.1;375.5;370.3;334.7;324.7;299.1;284.9;266.9;263.7;248.3;229.5;213.1;164.5;139.1;112.9;84.7;51.9;98.9;126.9;142.5;146.5;155.54;168.92;193.66;201.24;237.06;250.26;264.46;277.46;290.46;295.86;325.26;331.46;358.46;391.66;413.66;438.66;456.46;178.12;202.12;222.92;252.72;259.32;267.72;171.92;206.32;220.32;228.44;243.74;255.74;55.5;72.8;231.04;241.26;300.06;21.9;9.9;;10.96;28.12;50.12;68.8;19.9;148.9;272.9;281;380.3</t>
-  </si>
-  <si>
-    <t>muri-gümligen;397.06;386.46;381.26;345.66;335.66;310.06;295.86;277.86;274.66;259.26;240.46;224.06;175.46;150.06;123.86;95.66;62.86;109.86;137.86;153.46;157.46;166.5;179.88;204.62;212.2;248.02;261.22;275.42;288.42;301.42;306.82;336.22;342.42;369.42;402.62;424.62;449.62;467.42;189.08;213.08;233.88;263.68;270.28;278.68;182.88;217.28;231.28;239.4;254.7;266.7;66.46;83.76;242;252.22;311.02;32.86;20.86;10.96;;17.16;39.16;57.84;30.86;159.86;283.86;291.96;391.26</t>
-  </si>
-  <si>
-    <t>münsingen;414.22;403.62;398.42;362.82;352.82;327.22;313.02;295.02;291.82;276.42;257.62;241.22;192.62;167.22;141.02;112.82;80.02;127.02;155.02;170.62;174.62;183.66;197.04;221.78;229.36;265.18;278.38;292.58;305.58;318.58;323.98;353.38;359.58;386.58;419.78;441.78;466.78;484.58;206.24;230.24;251.04;280.84;287.44;295.84;200.04;234.44;248.44;256.56;271.86;283.86;83.62;100.92;259.16;269.38;328.18;50.02;38.02;28.12;17.16;;22;40.68;48.02;177.02;301.02;309.12;408.42</t>
-  </si>
-  <si>
-    <t>heimberg-steffisburg;436.22;425.62;420.42;384.82;374.82;349.22;335.02;317.02;313.82;298.42;279.62;263.22;214.62;189.22;163.02;134.82;102.02;149.02;177.02;192.62;196.62;205.66;219.04;243.78;251.36;287.18;300.38;314.58;327.58;340.58;345.98;375.38;381.58;408.58;441.78;463.78;488.78;506.58;228.24;252.24;273.04;302.84;309.44;317.84;222.04;256.44;270.44;278.56;293.86;305.86;105.62;122.92;281.16;291.38;350.18;72.02;60.02;50.12;39.16;22;;18.68;70.02;199.02;323.02;331.12;430.42</t>
-  </si>
-  <si>
-    <t>gwatt;454.9;444.3;439.1;403.5;393.5;367.9;353.7;335.7;332.5;317.1;298.3;281.9;233.3;207.9;181.7;153.5;120.7;167.7;195.7;211.3;215.3;224.34;237.72;262.46;270.04;305.86;319.06;333.26;346.26;359.26;364.66;394.06;400.26;427.26;460.46;482.46;507.46;525.26;246.92;270.92;291.72;321.52;328.12;336.52;240.72;275.12;289.12;297.24;312.54;324.54;124.3;141.6;299.84;310.06;368.86;90.7;78.7;68.8;57.84;40.68;18.68;;88.7;217.7;341.7;349.8;449.1</t>
-  </si>
-  <si>
-    <t>bern weyermannshaus;386.2;375.6;370.4;334.8;324.8;299.2;285;267;263.8;248.4;229.6;213.2;164.6;139.2;113;84.8;52;99;127;142.6;146.6;155.64;169.02;193.76;201.34;237.16;250.36;264.56;277.56;290.56;295.96;325.36;331.56;358.56;391.76;413.76;438.76;456.56;178.22;202.22;223.02;252.82;259.42;267.82;172.02;206.42;220.42;228.54;243.84;255.84;55.6;72.9;231.14;241.36;300.16;22;10;19.9;30.86;48.02;70.02;88.7;;149;273;281.1;380.4</t>
-  </si>
-  <si>
-    <t>fribourg;309.2;298.6;293.4;257.8;247.8;222.2;208;190;186.8;171.4;152.6;136.2;87.6;62.2;36;64.2;97;144;172;187.6;191.6;200.64;214.02;238.76;246.34;282.16;295.36;309.56;322.56;335.56;340.96;370.36;376.56;403.56;436.76;458.76;483.76;501.56;223.22;247.22;268.02;297.82;304.42;312.82;217.02;251.42;265.42;273.54;288.84;300.84;100.6;117.9;276.14;286.36;345.16;127;139;148.9;159.86;177.02;199.02;217.7;149;;196;204.1;303.4</t>
-  </si>
-  <si>
-    <t>crissier;125.2;114.6;109.4;73.8;63.8;38.2;24;6;9.2;24.6;43.4;59.8;108.4;133.8;160;188.2;221;268;296;311.6;315.6;324.64;338.02;362.76;370.34;406.16;419.36;433.56;446.56;459.56;464.96;494.36;500.56;527.56;560.76;582.76;607.76;625.56;347.22;371.22;392.02;421.82;428.42;436.82;341.02;375.42;389.42;397.54;412.84;424.84;224.6;241.9;400.14;410.36;469.16;251;263;272.9;283.86;301.02;323.02;341.7;273;196;;8.1;119.4</t>
-  </si>
-  <si>
-    <t>lausanne-malley;133.3;122.7;117.5;81.9;71.9;46.3;32.1;14.1;17.3;32.7;51.5;67.9;116.5;141.9;168.1;196.3;229.1;276.1;304.1;319.7;323.7;332.74;346.12;370.86;378.44;414.26;427.46;441.66;454.66;467.66;473.06;502.46;508.66;535.66;568.86;590.86;615.86;633.66;355.32;379.32;400.12;429.92;436.52;444.92;349.12;383.52;397.52;405.64;420.94;432.94;232.7;250;408.24;418.46;477.26;259.1;271.1;281;291.96;309.12;331.12;349.8;281.1;204.1;8.1;;127.5</t>
-  </si>
-  <si>
-    <t>zimeysa-meyrin;15.4;4.8;10;45.6;55.6;81.2;95.4;113.4;116.6;132;150.8;167.2;215.8;241.2;267.4;295.6;328.4;375.4;403.4;419;423;432.04;445.42;470.16;477.74;513.56;526.76;540.96;553.96;566.96;572.36;601.76;607.96;634.96;668.16;690.16;715.16;732.96;454.62;478.62;499.42;529.22;535.82;544.22;448.42;482.82;496.82;504.94;520.24;532.24;332;349.3;507.54;517.76;576.56;358.4;370.4;380.3;391.26;408.42;430.42;449.1;380.4;303.4;119.4;127.5;</t>
-  </si>
-  <si>
     <t>gossaucst</t>
   </si>
   <si>
-    <t>gossaucst;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</t>
+    <t>geneve la praille</t>
+  </si>
+  <si>
+    <t>val ombre</t>
+  </si>
+  <si>
+    <t>geneve aeroport</t>
+  </si>
+  <si>
+    <t>leman</t>
+  </si>
+  <si>
+    <t>harkingen</t>
+  </si>
+  <si>
+    <t>dulliken sud</t>
+  </si>
+  <si>
+    <t>zurich aussersihl</t>
+  </si>
+  <si>
+    <t>zurich nord</t>
+  </si>
+  <si>
+    <t>zurich flughafen</t>
+  </si>
+  <si>
+    <t>uzwil-oberburen</t>
+  </si>
+  <si>
+    <t>emmenbrucke</t>
+  </si>
+  <si>
+    <t>wangen-dubendorf</t>
+  </si>
+  <si>
+    <t>muri-gumligen</t>
+  </si>
+  <si>
+    <t>munsingen</t>
+  </si>
+  <si>
+    <t>schonbuhl</t>
   </si>
 </sst>
 </file>
@@ -1229,220 +1028,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AW38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BD52" sqref="BD52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AN1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AR1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AT1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AU1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AX1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AY1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AZ1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BA1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BB1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BC1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BD1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BG1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BK1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BL1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BM1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BN1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BO1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BP1" t="s">
         <v>50</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>65</v>
       </c>
       <c r="BT1" t="str">
         <f>CONCATENATE(A1,";",B1,";",C1,";",D1,";",E1,";",F1,";",G1,";",H1,";",I1,";",J1,";",K1,";",L1,";",M1,";",N1,";",O1,";",P1,";",Q1,";",R1,";",S1,";",T1,";",U1,";",V1,";",W1,";",X1,";",Y1,";",Z1,";",AA1,";",AB1,";",AC1,";",AD1,";",AE1,";",AF1,";",AG1,";",AH1,";",AI1,";",AJ1,";",AK1,";",AL1,";",AM1,";",AN1,";",AO1,";",AP1,";",AQ1,";",AR1,";",AS1,";",AT1,";",AU1,";",AV1,";",AW1,";",AX1,";",AY1,";",AZ1,";",BA1,";",BB1,";",BC1,";",BD1,";",BE1,";",BF1,";",BG1,";",BH1,";",BI1,";",BJ1,";",BK1,";",BL1,";",BM1,";",BN1,";",BO1,";",BP1)</f>
-        <v>;genève la praille;val ombré;genève aéroport;nyon;gland;aubonne;tolochenaz-morges;léman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;härkingen;rickenbach-wangen;dulliken süd;suhr;schafisheim;heitersberg;urdorf;zürich aussersihl;zürich nord;zürich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberbüren;gossaucst;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrücke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dübendorf;schönbühl;bern;bern wankdorf;muri-gümligen;münsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin</v>
+        <v>;geneve la praille;val ombre;geneve aeroport;nyon;gland;aubonne;tolochenaz-morges;leman;aclens;daillens;chavorney;yverdon;payerne;avanches;broye;kerzers;lyss ort;solothurn-zuchwil;niederbipp;neuendorf;harkingen;rickenbach-wangen;dulliken sud;suhr;schafisheim;heitersberg;urdorf;zurich aussersihl;zurich nord;zurich flughafen;aegert;winterthur;winterthur hegi;frauenfeld;wil;uzwil-oberburen;gossaucst;st. gallen st. fiden;oftringen-zofingen;dagmersellen;sursee;rothenburg;emmenbrucke;luzern allmend;dulliken;sissach;liestal;mayenfels;basel wolf;basel gateway nord;lyss;biel/bienne;pratteln west;limmatstadt;wangen-dubendorf;schonbuhl;bern;bern wankdorf;muri-gumligen;munsingen;heimberg-steffisburg;gwatt;bern weyermannshaus;fribourg;crissier;lausanne-malley;zimeysa-meyrin</v>
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>10.6</v>
@@ -1644,12 +1445,12 @@
       </c>
       <c r="BT2" t="str">
         <f t="shared" ref="BT2:BT65" si="0">CONCATENATE(A2,";",B2,";",C2,";",D2,";",E2,";",F2,";",G2,";",H2,";",I2,";",J2,";",K2,";",L2,";",M2,";",N2,";",O2,";",P2,";",Q2,";",R2,";",S2,";",T2,";",U2,";",V2,";",W2,";",X2,";",Y2,";",Z2,";",AA2,";",AB2,";",AC2,";",AD2,";",AE2,";",AF2,";",AG2,";",AH2,";",AI2,";",AJ2,";",AK2,";",AL2,";",AM2,";",AN2,";",AO2,";",AP2,";",AQ2,";",AR2,";",AS2,";",AT2,";",AU2,";",AV2,";",AW2,";",AX2,";",AY2,";",AZ2,";",BA2,";",BB2,";",BC2,";",BD2,";",BE2,";",BF2,";",BG2,";",BH2,";",BI2,";",BJ2,";",BK2,";",BL2,";",BM2,";",BN2,";",BO2,";",BP2)</f>
-        <v>genève la praille;;10.6;15.8;51.4;61.4;87;101.2;119.2;122.4;137.8;156.6;173;221.6;247;273.2;301.4;334.2;381.2;409.2;424.8;428.8;437.84;451.22;475.96;483.54;519.36;532.56;546.76;559.76;572.76;578.16;607.56;613.76;640.76;673.96;695.96;720.96;738.76;460.42;484.42;505.22;535.02;541.62;550.02;454.22;488.62;502.62;510.74;526.04;538.04;337.8;355.1;513.34;523.56;582.36;364.2;376.2;386.1;397.06;414.22;436.22;454.9;386.2;309.2;125.2;133.3;15.4;;10.6;15.8;51.4;61.4;87;101.2;119.2;122.4;137.8;156.6;173;221.6;247;273.2;301.4;334.2;381.2;409.2;424.8;428.8;437.84;451.22;475.96;483.54;519.36;532.56;546.76;559.76;572.76;578.16;607.56;613.76;640.76;673.96;695.96;720.96;738.76;460.42;484.42;505.22;535.02;541.62;550.02;454.22;488.62;502.62;510.74;526.04;538.04;337.8;355.1;513.34;523.56;582.36;364.2;376.2;386.1;397.06;414.22;436.22;454.9;386.2;309.2;125.2;133.3;15.4</v>
+        <v>geneve la praille;;10.6;15.8;51.4;61.4;87;101.2;119.2;122.4;137.8;156.6;173;221.6;247;273.2;301.4;334.2;381.2;409.2;424.8;428.8;437.84;451.22;475.96;483.54;519.36;532.56;546.76;559.76;572.76;578.16;607.56;613.76;640.76;673.96;695.96;720.96;738.76;460.42;484.42;505.22;535.02;541.62;550.02;454.22;488.62;502.62;510.74;526.04;538.04;337.8;355.1;513.34;523.56;582.36;364.2;376.2;386.1;397.06;414.22;436.22;454.9;386.2;309.2;125.2;133.3;15.4</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>10.6</v>
@@ -1851,12 +1652,12 @@
       </c>
       <c r="BT3" t="str">
         <f t="shared" si="0"/>
-        <v>val ombré;10.6;;5.2;40.8;50.8;76.4;90.6;108.6;111.8;127.2;146;162.4;211;236.4;262.6;290.8;323.6;370.6;398.6;414.2;418.2;427.24;440.62;465.36;472.94;508.76;521.96;536.16;549.16;562.16;567.56;596.96;603.16;630.16;663.36;685.36;710.36;728.16;449.82;473.82;494.62;524.42;531.02;539.42;443.62;478.02;492.02;500.14;515.44;527.44;327.2;344.5;502.74;512.96;571.76;353.6;365.6;375.5;386.46;403.62;425.62;444.3;375.6;298.6;114.6;122.7;4.8;10.6;;5.2;40.8;50.8;76.4;90.6;108.6;111.8;127.2;146;162.4;211;236.4;262.6;290.8;323.6;370.6;398.6;414.2;418.2;427.24;440.62;465.36;472.94;508.76;521.96;536.16;549.16;562.16;567.56;596.96;603.16;630.16;663.36;685.36;710.36;728.16;449.82;473.82;494.62;524.42;531.02;539.42;443.62;478.02;492.02;500.14;515.44;527.44;327.2;344.5;502.74;512.96;571.76;353.6;365.6;375.5;386.46;403.62;425.62;444.3;375.6;298.6;114.6;122.7;4.8</v>
+        <v>val ombre;10.6;;5.2;40.8;50.8;76.4;90.6;108.6;111.8;127.2;146;162.4;211;236.4;262.6;290.8;323.6;370.6;398.6;414.2;418.2;427.24;440.62;465.36;472.94;508.76;521.96;536.16;549.16;562.16;567.56;596.96;603.16;630.16;663.36;685.36;710.36;728.16;449.82;473.82;494.62;524.42;531.02;539.42;443.62;478.02;492.02;500.14;515.44;527.44;327.2;344.5;502.74;512.96;571.76;353.6;365.6;375.5;386.46;403.62;425.62;444.3;375.6;298.6;114.6;122.7;4.8</v>
       </c>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>15.8</v>
@@ -2058,12 +1859,12 @@
       </c>
       <c r="BT4" t="str">
         <f t="shared" si="0"/>
-        <v>genève aéroport;15.8;5.2;;35.6;45.6;71.2;85.4;103.4;106.6;122;140.8;157.2;205.8;231.2;257.4;285.6;318.4;365.4;393.4;409;413;422.04;435.42;460.16;467.74;503.56;516.76;530.96;543.96;556.96;562.36;591.76;597.96;624.96;658.16;680.16;705.16;722.96;444.62;468.62;489.42;519.22;525.82;534.22;438.42;472.82;486.82;494.94;510.24;522.24;322;339.3;497.54;507.76;566.56;348.4;360.4;370.3;381.26;398.42;420.42;439.1;370.4;293.4;109.4;117.5;10;15.8;5.2;;35.6;45.6;71.2;85.4;103.4;106.6;122;140.8;157.2;205.8;231.2;257.4;285.6;318.4;365.4;393.4;409;413;422.04;435.42;460.16;467.74;503.56;516.76;530.96;543.96;556.96;562.36;591.76;597.96;624.96;658.16;680.16;705.16;722.96;444.62;468.62;489.42;519.22;525.82;534.22;438.42;472.82;486.82;494.94;510.24;522.24;322;339.3;497.54;507.76;566.56;348.4;360.4;370.3;381.26;398.42;420.42;439.1;370.4;293.4;109.4;117.5;10</v>
+        <v>geneve aeroport;15.8;5.2;;35.6;45.6;71.2;85.4;103.4;106.6;122;140.8;157.2;205.8;231.2;257.4;285.6;318.4;365.4;393.4;409;413;422.04;435.42;460.16;467.74;503.56;516.76;530.96;543.96;556.96;562.36;591.76;597.96;624.96;658.16;680.16;705.16;722.96;444.62;468.62;489.42;519.22;525.82;534.22;438.42;472.82;486.82;494.94;510.24;522.24;322;339.3;497.54;507.76;566.56;348.4;360.4;370.3;381.26;398.42;420.42;439.1;370.4;293.4;109.4;117.5;10</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>51.4</v>
@@ -2265,12 +2066,12 @@
       </c>
       <c r="BT5" t="str">
         <f t="shared" si="0"/>
-        <v>nyon;51.4;40.8;35.6;;10;35.6;49.8;67.8;71;86.4;105.2;121.6;170.2;195.6;221.8;250;282.8;329.8;357.8;373.4;377.4;386.44;399.82;424.56;432.14;467.96;481.16;495.36;508.36;521.36;526.76;556.16;562.36;589.36;622.56;644.56;669.56;687.36;409.02;433.02;453.82;483.62;490.22;498.62;402.82;437.22;451.22;459.34;474.64;486.64;286.4;303.7;461.94;472.16;530.96;312.8;324.8;334.7;345.66;362.82;384.82;403.5;334.8;257.8;73.8;81.9;45.6;51.4;40.8;35.6;;10;35.6;49.8;67.8;71;86.4;105.2;121.6;170.2;195.6;221.8;250;282.8;329.8;357.8;373.4;377.4;386.44;399.82;424.56;432.14;467.96;481.16;495.36;508.36;521.36;526.76;556.16;562.36;589.36;622.56;644.56;669.56;687.36;409.02;433.02;453.82;483.62;490.22;498.62;402.82;437.22;451.22;459.34;474.64;486.64;286.4;303.7;461.94;472.16;530.96;312.8;324.8;334.7;345.66;362.82;384.82;403.5;334.8;257.8;73.8;81.9;45.6</v>
+        <v>nyon;51.4;40.8;35.6;;10;35.6;49.8;67.8;71;86.4;105.2;121.6;170.2;195.6;221.8;250;282.8;329.8;357.8;373.4;377.4;386.44;399.82;424.56;432.14;467.96;481.16;495.36;508.36;521.36;526.76;556.16;562.36;589.36;622.56;644.56;669.56;687.36;409.02;433.02;453.82;483.62;490.22;498.62;402.82;437.22;451.22;459.34;474.64;486.64;286.4;303.7;461.94;472.16;530.96;312.8;324.8;334.7;345.66;362.82;384.82;403.5;334.8;257.8;73.8;81.9;45.6</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>61.399999999999991</v>
@@ -2472,12 +2273,12 @@
       </c>
       <c r="BT6" t="str">
         <f t="shared" si="0"/>
-        <v>gland;61.4;50.8;45.6;10;;25.6;39.8;57.8;61;76.4;95.2;111.6;160.2;185.6;211.8;240;272.8;319.8;347.8;363.4;367.4;376.44;389.82;414.56;422.14;457.96;471.16;485.36;498.36;511.36;516.76;546.16;552.36;579.36;612.56;634.56;659.56;677.36;399.02;423.02;443.82;473.62;480.22;488.62;392.82;427.22;441.22;449.34;464.64;476.64;276.4;293.7;451.94;462.16;520.96;302.8;314.8;324.7;335.66;352.82;374.82;393.5;324.8;247.8;63.8;71.9;55.6;61.4;50.8;45.6;10;;25.6;39.8;57.8;61;76.4;95.2;111.6;160.2;185.6;211.8;240;272.8;319.8;347.8;363.4;367.4;376.44;389.82;414.56;422.14;457.96;471.16;485.36;498.36;511.36;516.76;546.16;552.36;579.36;612.56;634.56;659.56;677.36;399.02;423.02;443.82;473.62;480.22;488.62;392.82;427.22;441.22;449.34;464.64;476.64;276.4;293.7;451.94;462.16;520.96;302.8;314.8;324.7;335.66;352.82;374.82;393.5;324.8;247.8;63.8;71.9;55.6</v>
+        <v>gland;61.4;50.8;45.6;10;;25.6;39.8;57.8;61;76.4;95.2;111.6;160.2;185.6;211.8;240;272.8;319.8;347.8;363.4;367.4;376.44;389.82;414.56;422.14;457.96;471.16;485.36;498.36;511.36;516.76;546.16;552.36;579.36;612.56;634.56;659.56;677.36;399.02;423.02;443.82;473.62;480.22;488.62;392.82;427.22;441.22;449.34;464.64;476.64;276.4;293.7;451.94;462.16;520.96;302.8;314.8;324.7;335.66;352.82;374.82;393.5;324.8;247.8;63.8;71.9;55.6</v>
       </c>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -2679,12 +2480,12 @@
       </c>
       <c r="BT7" t="str">
         <f t="shared" si="0"/>
-        <v>aubonne;87;76.4;71.2;35.6;25.6;;14.2;32.2;35.4;50.8;69.6;86;134.6;160;186.2;214.4;247.2;294.2;322.2;337.8;341.8;350.84;364.22;388.96;396.54;432.36;445.56;459.76;472.76;485.76;491.16;520.56;526.76;553.76;586.96;608.96;633.96;651.76;373.42;397.42;418.22;448.02;454.62;463.02;367.22;401.62;415.62;423.74;439.04;451.04;250.8;268.1;426.34;436.56;495.36;277.2;289.2;299.1;310.06;327.22;349.22;367.9;299.2;222.2;38.2;46.3;81.2;87;76.4;71.2;35.6;25.6;;14.2;32.2;35.4;50.8;69.6;86;134.6;160;186.2;214.4;247.2;294.2;322.2;337.8;341.8;350.84;364.22;388.96;396.54;432.36;445.56;459.76;472.76;485.76;491.16;520.56;526.76;553.76;586.96;608.96;633.96;651.76;373.42;397.42;418.22;448.02;454.62;463.02;367.22;401.62;415.62;423.74;439.04;451.04;250.8;268.1;426.34;436.56;495.36;277.2;289.2;299.1;310.06;327.22;349.22;367.9;299.2;222.2;38.2;46.3;81.2</v>
+        <v>aubonne;87;76.4;71.2;35.6;25.6;;14.2;32.2;35.4;50.8;69.6;86;134.6;160;186.2;214.4;247.2;294.2;322.2;337.8;341.8;350.84;364.22;388.96;396.54;432.36;445.56;459.76;472.76;485.76;491.16;520.56;526.76;553.76;586.96;608.96;633.96;651.76;373.42;397.42;418.22;448.02;454.62;463.02;367.22;401.62;415.62;423.74;439.04;451.04;250.8;268.1;426.34;436.56;495.36;277.2;289.2;299.1;310.06;327.22;349.22;367.9;299.2;222.2;38.2;46.3;81.2</v>
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>101.2</v>
@@ -2886,12 +2687,12 @@
       </c>
       <c r="BT8" t="str">
         <f t="shared" si="0"/>
-        <v>tolochenaz-morges;101.2;90.6;85.4;49.8;39.8;14.2;;18;21.2;36.6;55.4;71.8;120.4;145.8;172;200.2;233;280;308;323.6;327.6;336.64;350.02;374.76;382.34;418.16;431.36;445.56;458.56;471.56;476.96;506.36;512.56;539.56;572.76;594.76;619.76;637.56;359.22;383.22;404.02;433.82;440.42;448.82;353.02;387.42;401.42;409.54;424.84;436.84;236.6;253.9;412.14;422.36;481.16;263;275;284.9;295.86;313.02;335.02;353.7;285;208;24;32.1;95.4;101.2;90.6;85.4;49.8;39.8;14.2;;18;21.2;36.6;55.4;71.8;120.4;145.8;172;200.2;233;280;308;323.6;327.6;336.64;350.02;374.76;382.34;418.16;431.36;445.56;458.56;471.56;476.96;506.36;512.56;539.56;572.76;594.76;619.76;637.56;359.22;383.22;404.02;433.82;440.42;448.82;353.02;387.42;401.42;409.54;424.84;436.84;236.6;253.9;412.14;422.36;481.16;263;275;284.9;295.86;313.02;335.02;353.7;285;208;24;32.1;95.4</v>
+        <v>tolochenaz-morges;101.2;90.6;85.4;49.8;39.8;14.2;;18;21.2;36.6;55.4;71.8;120.4;145.8;172;200.2;233;280;308;323.6;327.6;336.64;350.02;374.76;382.34;418.16;431.36;445.56;458.56;471.56;476.96;506.36;512.56;539.56;572.76;594.76;619.76;637.56;359.22;383.22;404.02;433.82;440.42;448.82;353.02;387.42;401.42;409.54;424.84;436.84;236.6;253.9;412.14;422.36;481.16;263;275;284.9;295.86;313.02;335.02;353.7;285;208;24;32.1;95.4</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>119.2</v>
@@ -3093,12 +2894,12 @@
       </c>
       <c r="BT9" t="str">
         <f t="shared" si="0"/>
-        <v>léman;119.2;108.6;103.4;67.8;57.8;32.2;18;;3.2;18.6;37.4;53.8;102.4;127.8;154;182.2;215;262;290;305.6;309.6;318.64;332.02;356.76;364.34;400.16;413.36;427.56;440.56;453.56;458.96;488.36;494.56;521.56;554.76;576.76;601.76;619.56;341.22;365.22;386.02;415.82;422.42;430.82;335.02;369.42;383.42;391.54;406.84;418.84;218.6;235.9;394.14;404.36;463.16;245;257;266.9;277.86;295.02;317.02;335.7;267;190;6;14.1;113.4;119.2;108.6;103.4;67.8;57.8;32.2;18;;3.2;18.6;37.4;53.8;102.4;127.8;154;182.2;215;262;290;305.6;309.6;318.64;332.02;356.76;364.34;400.16;413.36;427.56;440.56;453.56;458.96;488.36;494.56;521.56;554.76;576.76;601.76;619.56;341.22;365.22;386.02;415.82;422.42;430.82;335.02;369.42;383.42;391.54;406.84;418.84;218.6;235.9;394.14;404.36;463.16;245;257;266.9;277.86;295.02;317.02;335.7;267;190;6;14.1;113.4</v>
+        <v>leman;119.2;108.6;103.4;67.8;57.8;32.2;18;;3.2;18.6;37.4;53.8;102.4;127.8;154;182.2;215;262;290;305.6;309.6;318.64;332.02;356.76;364.34;400.16;413.36;427.56;440.56;453.56;458.96;488.36;494.56;521.56;554.76;576.76;601.76;619.56;341.22;365.22;386.02;415.82;422.42;430.82;335.02;369.42;383.42;391.54;406.84;418.84;218.6;235.9;394.14;404.36;463.16;245;257;266.9;277.86;295.02;317.02;335.7;267;190;6;14.1;113.4</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>122.4</v>
@@ -3300,12 +3101,12 @@
       </c>
       <c r="BT10" t="str">
         <f t="shared" si="0"/>
-        <v>aclens;122.4;111.8;106.6;71;61;35.4;21.2;3.2;;15.4;34.2;50.6;99.2;124.6;150.8;179;211.8;258.8;286.8;302.4;306.4;315.44;328.82;353.56;361.14;396.96;410.16;424.36;437.36;450.36;455.76;485.16;491.36;518.36;551.56;573.56;598.56;616.36;338.02;362.02;382.82;412.62;419.22;427.62;331.82;366.22;380.22;388.34;403.64;415.64;215.4;232.7;390.94;401.16;459.96;241.8;253.8;263.7;274.66;291.82;313.82;332.5;263.8;186.8;9.2;17.3;116.6;122.4;111.8;106.6;71;61;35.4;21.2;3.2;;15.4;34.2;50.6;99.2;124.6;150.8;179;211.8;258.8;286.8;302.4;306.4;315.44;328.82;353.56;361.14;396.96;410.16;424.36;437.36;450.36;455.76;485.16;491.36;518.36;551.56;573.56;598.56;616.36;338.02;362.02;382.82;412.62;419.22;427.62;331.82;366.22;380.22;388.34;403.64;415.64;215.4;232.7;390.94;401.16;459.96;241.8;253.8;263.7;274.66;291.82;313.82;332.5;263.8;186.8;9.2;17.3;116.6</v>
+        <v>aclens;122.4;111.8;106.6;71;61;35.4;21.2;3.2;;15.4;34.2;50.6;99.2;124.6;150.8;179;211.8;258.8;286.8;302.4;306.4;315.44;328.82;353.56;361.14;396.96;410.16;424.36;437.36;450.36;455.76;485.16;491.36;518.36;551.56;573.56;598.56;616.36;338.02;362.02;382.82;412.62;419.22;427.62;331.82;366.22;380.22;388.34;403.64;415.64;215.4;232.7;390.94;401.16;459.96;241.8;253.8;263.7;274.66;291.82;313.82;332.5;263.8;186.8;9.2;17.3;116.6</v>
       </c>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>137.80000000000001</v>
@@ -3507,12 +3308,12 @@
       </c>
       <c r="BT11" t="str">
         <f t="shared" si="0"/>
-        <v>daillens;137.8;127.2;122;86.4;76.4;50.8;36.6;18.6;15.4;;18.8;35.2;83.8;109.2;135.4;163.6;196.4;243.4;271.4;287;291;300.04;313.42;338.16;345.74;381.56;394.76;408.96;421.96;434.96;440.36;469.76;475.96;502.96;536.16;558.16;583.16;600.96;322.62;346.62;367.42;397.22;403.82;412.22;316.42;350.82;364.82;372.94;388.24;400.24;200;217.3;375.54;385.76;444.56;226.4;238.4;248.3;259.26;276.42;298.42;317.1;248.4;171.4;24.6;32.7;132;137.8;127.2;122;86.4;76.4;50.8;36.6;18.6;15.4;;18.8;35.2;83.8;109.2;135.4;163.6;196.4;243.4;271.4;287;291;300.04;313.42;338.16;345.74;381.56;394.76;408.96;421.96;434.96;440.36;469.76;475.96;502.96;536.16;558.16;583.16;600.96;322.62;346.62;367.42;397.22;403.82;412.22;316.42;350.82;364.82;372.94;388.24;400.24;200;217.3;375.54;385.76;444.56;226.4;238.4;248.3;259.26;276.42;298.42;317.1;248.4;171.4;24.6;32.7;132</v>
+        <v>daillens;137.8;127.2;122;86.4;76.4;50.8;36.6;18.6;15.4;;18.8;35.2;83.8;109.2;135.4;163.6;196.4;243.4;271.4;287;291;300.04;313.42;338.16;345.74;381.56;394.76;408.96;421.96;434.96;440.36;469.76;475.96;502.96;536.16;558.16;583.16;600.96;322.62;346.62;367.42;397.22;403.82;412.22;316.42;350.82;364.82;372.94;388.24;400.24;200;217.3;375.54;385.76;444.56;226.4;238.4;248.3;259.26;276.42;298.42;317.1;248.4;171.4;24.6;32.7;132</v>
       </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>156.6</v>
@@ -3714,12 +3515,12 @@
       </c>
       <c r="BT12" t="str">
         <f t="shared" si="0"/>
-        <v>chavorney;156.6;146;140.8;105.2;95.2;69.6;55.4;37.4;34.2;18.8;;16.4;65;90.4;116.6;144.8;177.6;224.6;252.6;268.2;272.2;281.24;294.62;319.36;326.94;362.76;375.96;390.16;403.16;416.16;421.56;450.96;457.16;484.16;517.36;539.36;564.36;582.16;303.82;327.82;348.62;378.42;385.02;393.42;297.62;332.02;346.02;354.14;369.44;381.44;181.2;198.5;356.74;366.96;425.76;207.6;219.6;229.5;240.46;257.62;279.62;298.3;229.6;152.6;43.4;51.5;150.8;156.6;146;140.8;105.2;95.2;69.6;55.4;37.4;34.2;18.8;;16.4;65;90.4;116.6;144.8;177.6;224.6;252.6;268.2;272.2;281.24;294.62;319.36;326.94;362.76;375.96;390.16;403.16;416.16;421.56;450.96;457.16;484.16;517.36;539.36;564.36;582.16;303.82;327.82;348.62;378.42;385.02;393.42;297.62;332.02;346.02;354.14;369.44;381.44;181.2;198.5;356.74;366.96;425.76;207.6;219.6;229.5;240.46;257.62;279.62;298.3;229.6;152.6;43.4;51.5;150.8</v>
+        <v>chavorney;156.6;146;140.8;105.2;95.2;69.6;55.4;37.4;34.2;18.8;;16.4;65;90.4;116.6;144.8;177.6;224.6;252.6;268.2;272.2;281.24;294.62;319.36;326.94;362.76;375.96;390.16;403.16;416.16;421.56;450.96;457.16;484.16;517.36;539.36;564.36;582.16;303.82;327.82;348.62;378.42;385.02;393.42;297.62;332.02;346.02;354.14;369.44;381.44;181.2;198.5;356.74;366.96;425.76;207.6;219.6;229.5;240.46;257.62;279.62;298.3;229.6;152.6;43.4;51.5;150.8</v>
       </c>
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>173</v>
@@ -3921,12 +3722,12 @@
       </c>
       <c r="BT13" t="str">
         <f t="shared" si="0"/>
-        <v>yverdon;173;162.4;157.2;121.6;111.6;86;71.8;53.8;50.6;35.2;16.4;;48.6;74;100.2;128.4;161.2;208.2;236.2;251.8;255.8;264.84;278.22;302.96;310.54;346.36;359.56;373.76;386.76;399.76;405.16;434.56;440.76;467.76;500.96;522.96;547.96;565.76;287.42;311.42;332.22;362.02;368.62;377.02;281.22;315.62;329.62;337.74;353.04;365.04;164.8;182.1;340.34;350.56;409.36;191.2;203.2;213.1;224.06;241.22;263.22;281.9;213.2;136.2;59.8;67.9;167.2;173;162.4;157.2;121.6;111.6;86;71.8;53.8;50.6;35.2;16.4;;48.6;74;100.2;128.4;161.2;208.2;236.2;251.8;255.8;264.84;278.22;302.96;310.54;346.36;359.56;373.76;386.76;399.76;405.16;434.56;440.76;467.76;500.96;522.96;547.96;565.76;287.42;311.42;332.22;362.02;368.62;377.02;281.22;315.62;329.62;337.74;353.04;365.04;164.8;182.1;340.34;350.56;409.36;191.2;203.2;213.1;224.06;241.22;263.22;281.9;213.2;136.2;59.8;67.9;167.2</v>
+        <v>yverdon;173;162.4;157.2;121.6;111.6;86;71.8;53.8;50.6;35.2;16.4;;48.6;74;100.2;128.4;161.2;208.2;236.2;251.8;255.8;264.84;278.22;302.96;310.54;346.36;359.56;373.76;386.76;399.76;405.16;434.56;440.76;467.76;500.96;522.96;547.96;565.76;287.42;311.42;332.22;362.02;368.62;377.02;281.22;315.62;329.62;337.74;353.04;365.04;164.8;182.1;340.34;350.56;409.36;191.2;203.2;213.1;224.06;241.22;263.22;281.9;213.2;136.2;59.8;67.9;167.2</v>
       </c>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>221.6</v>
@@ -4128,12 +3929,12 @@
       </c>
       <c r="BT14" t="str">
         <f t="shared" si="0"/>
-        <v>payerne;221.6;211;205.8;170.2;160.2;134.6;120.4;102.4;99.2;83.8;65;48.6;;25.4;51.6;79.8;112.6;159.6;187.6;203.2;207.2;216.24;229.62;254.36;261.94;297.76;310.96;325.16;338.16;351.16;356.56;385.96;392.16;419.16;452.36;474.36;499.36;517.16;238.82;262.82;283.62;313.42;320.02;328.42;232.62;267.02;281.02;289.14;304.44;316.44;116.2;133.5;291.74;301.96;360.76;142.6;154.6;164.5;175.46;192.62;214.62;233.3;164.6;87.6;108.4;116.5;215.8;221.6;211;205.8;170.2;160.2;134.6;120.4;102.4;99.2;83.8;65;48.6;;25.4;51.6;79.8;112.6;159.6;187.6;203.2;207.2;216.24;229.62;254.36;261.94;297.76;310.96;325.16;338.16;351.16;356.56;385.96;392.16;419.16;452.36;474.36;499.36;517.16;238.82;262.82;283.62;313.42;320.02;328.42;232.62;267.02;281.02;289.14;304.44;316.44;116.2;133.5;291.74;301.96;360.76;142.6;154.6;164.5;175.46;192.62;214.62;233.3;164.6;87.6;108.4;116.5;215.8</v>
+        <v>payerne;221.6;211;205.8;170.2;160.2;134.6;120.4;102.4;99.2;83.8;65;48.6;;25.4;51.6;79.8;112.6;159.6;187.6;203.2;207.2;216.24;229.62;254.36;261.94;297.76;310.96;325.16;338.16;351.16;356.56;385.96;392.16;419.16;452.36;474.36;499.36;517.16;238.82;262.82;283.62;313.42;320.02;328.42;232.62;267.02;281.02;289.14;304.44;316.44;116.2;133.5;291.74;301.96;360.76;142.6;154.6;164.5;175.46;192.62;214.62;233.3;164.6;87.6;108.4;116.5;215.8</v>
       </c>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>247</v>
@@ -4335,12 +4136,12 @@
       </c>
       <c r="BT15" t="str">
         <f t="shared" si="0"/>
-        <v>avanches;247;236.4;231.2;195.6;185.6;160;145.8;127.8;124.6;109.2;90.4;74;25.4;;26.2;54.4;87.2;134.2;162.2;177.8;181.8;190.84;204.22;228.96;236.54;272.36;285.56;299.76;312.76;325.76;331.16;360.56;366.76;393.76;426.96;448.96;473.96;491.76;213.42;237.42;258.22;288.02;294.62;303.02;207.22;241.62;255.62;263.74;279.04;291.04;90.8;108.1;266.34;276.56;335.36;117.2;129.2;139.1;150.06;167.22;189.22;207.9;139.2;62.2;133.8;141.9;241.2;247;236.4;231.2;195.6;185.6;160;145.8;127.8;124.6;109.2;90.4;74;25.4;;26.2;54.4;87.2;134.2;162.2;177.8;181.8;190.84;204.22;228.96;236.54;272.36;285.56;299.76;312.76;325.76;331.16;360.56;366.76;393.76;426.96;448.96;473.96;491.76;213.42;237.42;258.22;288.02;294.62;303.02;207.22;241.62;255.62;263.74;279.04;291.04;90.8;108.1;266.34;276.56;335.36;117.2;129.2;139.1;150.06;167.22;189.22;207.9;139.2;62.2;133.8;141.9;241.2</v>
+        <v>avanches;247;236.4;231.2;195.6;185.6;160;145.8;127.8;124.6;109.2;90.4;74;25.4;;26.2;54.4;87.2;134.2;162.2;177.8;181.8;190.84;204.22;228.96;236.54;272.36;285.56;299.76;312.76;325.76;331.16;360.56;366.76;393.76;426.96;448.96;473.96;491.76;213.42;237.42;258.22;288.02;294.62;303.02;207.22;241.62;255.62;263.74;279.04;291.04;90.8;108.1;266.34;276.56;335.36;117.2;129.2;139.1;150.06;167.22;189.22;207.9;139.2;62.2;133.8;141.9;241.2</v>
       </c>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>273.2</v>
@@ -4542,12 +4343,12 @@
       </c>
       <c r="BT16" t="str">
         <f t="shared" si="0"/>
-        <v>broye;273.2;262.6;257.4;221.8;211.8;186.2;172;154;150.8;135.4;116.6;100.2;51.6;26.2;;28.2;61;108;136;151.6;155.6;164.64;178.02;202.76;210.34;246.16;259.36;273.56;286.56;299.56;304.96;334.36;340.56;367.56;400.76;422.76;447.76;465.56;187.22;211.22;232.02;261.82;268.42;276.82;181.02;215.42;229.42;237.54;252.84;264.84;64.6;81.9;240.14;250.36;309.16;91;103;112.9;123.86;141.02;163.02;181.7;113;36;160;168.1;267.4;273.2;262.6;257.4;221.8;211.8;186.2;172;154;150.8;135.4;116.6;100.2;51.6;26.2;;28.2;61;108;136;151.6;155.6;164.64;178.02;202.76;210.34;246.16;259.36;273.56;286.56;299.56;304.96;334.36;340.56;367.56;400.76;422.76;447.76;465.56;187.22;211.22;232.02;261.82;268.42;276.82;181.02;215.42;229.42;237.54;252.84;264.84;64.6;81.9;240.14;250.36;309.16;91;103;112.9;123.86;141.02;163.02;181.7;113;36;160;168.1;267.4</v>
+        <v>broye;273.2;262.6;257.4;221.8;211.8;186.2;172;154;150.8;135.4;116.6;100.2;51.6;26.2;;28.2;61;108;136;151.6;155.6;164.64;178.02;202.76;210.34;246.16;259.36;273.56;286.56;299.56;304.96;334.36;340.56;367.56;400.76;422.76;447.76;465.56;187.22;211.22;232.02;261.82;268.42;276.82;181.02;215.42;229.42;237.54;252.84;264.84;64.6;81.9;240.14;250.36;309.16;91;103;112.9;123.86;141.02;163.02;181.7;113;36;160;168.1;267.4</v>
       </c>
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>301.39999999999998</v>
@@ -4749,12 +4550,12 @@
       </c>
       <c r="BT17" t="str">
         <f t="shared" si="0"/>
-        <v>kerzers;301.4;290.8;285.6;250;240;214.4;200.2;182.2;179;163.6;144.8;128.4;79.8;54.4;28.2;;32.8;79.8;107.8;123.4;127.4;136.44;149.82;174.56;182.14;217.96;231.16;245.36;258.36;271.36;276.76;306.16;312.36;339.36;372.56;394.56;419.56;437.36;159.02;183.02;203.82;233.62;240.22;248.62;152.82;187.22;201.22;209.34;224.64;236.64;36.4;53.7;211.94;222.16;280.96;62.8;74.8;84.7;95.66;112.82;134.82;153.5;84.8;64.2;188.2;196.3;295.6;301.4;290.8;285.6;250;240;214.4;200.2;182.2;179;163.6;144.8;128.4;79.8;54.4;28.2;;32.8;79.8;107.8;123.4;127.4;136.44;149.82;174.56;182.14;217.96;231.16;245.36;258.36;271.36;276.76;306.16;312.36;339.36;372.56;394.56;419.56;437.36;159.02;183.02;203.82;233.62;240.22;248.62;152.82;187.22;201.22;209.34;224.64;236.64;36.4;53.7;211.94;222.16;280.96;62.8;74.8;84.7;95.66;112.82;134.82;153.5;84.8;64.2;188.2;196.3;295.6</v>
+        <v>kerzers;301.4;290.8;285.6;250;240;214.4;200.2;182.2;179;163.6;144.8;128.4;79.8;54.4;28.2;;32.8;79.8;107.8;123.4;127.4;136.44;149.82;174.56;182.14;217.96;231.16;245.36;258.36;271.36;276.76;306.16;312.36;339.36;372.56;394.56;419.56;437.36;159.02;183.02;203.82;233.62;240.22;248.62;152.82;187.22;201.22;209.34;224.64;236.64;36.4;53.7;211.94;222.16;280.96;62.8;74.8;84.7;95.66;112.82;134.82;153.5;84.8;64.2;188.2;196.3;295.6</v>
       </c>
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>334.2</v>
@@ -4956,12 +4757,12 @@
       </c>
       <c r="BT18" t="str">
         <f t="shared" si="0"/>
-        <v>lyss ort;334.2;323.6;318.4;282.8;272.8;247.2;233;215;211.8;196.4;177.6;161.2;112.6;87.2;61;32.8;;47;75;90.6;94.6;103.64;117.02;141.76;149.34;185.16;198.36;212.56;225.56;238.56;243.96;273.36;279.56;306.56;339.76;361.76;386.76;404.56;126.22;150.22;171.02;200.82;207.42;215.82;120.02;154.42;168.42;176.54;191.84;203.84;3.6;20.9;179.14;189.36;248.16;30;42;51.9;62.86;80.02;102.02;120.7;52;97;221;229.1;328.4;334.2;323.6;318.4;282.8;272.8;247.2;233;215;211.8;196.4;177.6;161.2;112.6;87.2;61;32.8;;47;75;90.6;94.6;103.64;117.02;141.76;149.34;185.16;198.36;212.56;225.56;238.56;243.96;273.36;279.56;306.56;339.76;361.76;386.76;404.56;126.22;150.22;171.02;200.82;207.42;215.82;120.02;154.42;168.42;176.54;191.84;203.84;3.6;20.9;179.14;189.36;248.16;30;42;51.9;62.86;80.02;102.02;120.7;52;97;221;229.1;328.4</v>
+        <v>lyss ort;334.2;323.6;318.4;282.8;272.8;247.2;233;215;211.8;196.4;177.6;161.2;112.6;87.2;61;32.8;;47;75;90.6;94.6;103.64;117.02;141.76;149.34;185.16;198.36;212.56;225.56;238.56;243.96;273.36;279.56;306.56;339.76;361.76;386.76;404.56;126.22;150.22;171.02;200.82;207.42;215.82;120.02;154.42;168.42;176.54;191.84;203.84;3.6;20.9;179.14;189.36;248.16;30;42;51.9;62.86;80.02;102.02;120.7;52;97;221;229.1;328.4</v>
       </c>
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>381.2</v>
@@ -5163,12 +4964,12 @@
       </c>
       <c r="BT19" t="str">
         <f t="shared" si="0"/>
-        <v>solothurn-zuchwil;381.2;370.6;365.4;329.8;319.8;294.2;280;262;258.8;243.4;224.6;208.2;159.6;134.2;108;79.8;47;;28;43.6;47.6;56.64;70.02;94.76;102.34;138.16;151.36;165.56;178.56;191.56;196.96;226.36;232.56;259.56;292.76;314.76;339.76;357.56;79.22;103.22;124.02;153.82;160.42;168.82;73.02;107.42;121.42;129.54;144.84;156.84;50.6;67.9;132.14;142.36;201.16;77;89;98.9;109.86;127.02;149.02;167.7;99;144;268;276.1;375.4;381.2;370.6;365.4;329.8;319.8;294.2;280;262;258.8;243.4;224.6;208.2;159.6;134.2;108;79.8;47;;28;43.6;47.6;56.64;70.02;94.76;102.34;138.16;151.36;165.56;178.56;191.56;196.96;226.36;232.56;259.56;292.76;314.76;339.76;357.56;79.22;103.22;124.02;153.82;160.42;168.82;73.02;107.42;121.42;129.54;144.84;156.84;50.6;67.9;132.14;142.36;201.16;77;89;98.9;109.86;127.02;149.02;167.7;99;144;268;276.1;375.4</v>
+        <v>solothurn-zuchwil;381.2;370.6;365.4;329.8;319.8;294.2;280;262;258.8;243.4;224.6;208.2;159.6;134.2;108;79.8;47;;28;43.6;47.6;56.64;70.02;94.76;102.34;138.16;151.36;165.56;178.56;191.56;196.96;226.36;232.56;259.56;292.76;314.76;339.76;357.56;79.22;103.22;124.02;153.82;160.42;168.82;73.02;107.42;121.42;129.54;144.84;156.84;50.6;67.9;132.14;142.36;201.16;77;89;98.9;109.86;127.02;149.02;167.7;99;144;268;276.1;375.4</v>
       </c>
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>409.2</v>
@@ -5370,12 +5171,12 @@
       </c>
       <c r="BT20" t="str">
         <f t="shared" si="0"/>
-        <v>niederbipp;409.2;398.6;393.4;357.8;347.8;322.2;308;290;286.8;271.4;252.6;236.2;187.6;162.2;136;107.8;75;28;;15.6;19.6;28.64;42.02;66.76;74.34;110.16;123.36;137.56;150.56;163.56;168.96;198.36;204.56;231.56;264.76;286.76;311.76;329.56;51.22;75.22;96.02;125.82;132.42;140.82;45.02;79.42;93.42;101.54;116.84;128.84;78.6;95.9;104.14;114.36;173.16;105;117;126.9;137.86;155.02;177.02;195.7;127;172;296;304.1;403.4;409.2;398.6;393.4;357.8;347.8;322.2;308;290;286.8;271.4;252.6;236.2;187.6;162.2;136;107.8;75;28;;15.6;19.6;28.64;42.02;66.76;74.34;110.16;123.36;137.56;150.56;163.56;168.96;198.36;204.56;231.56;264.76;286.76;311.76;329.56;51.22;75.22;96.02;125.82;132.42;140.82;45.02;79.42;93.42;101.54;116.84;128.84;78.6;95.9;104.14;114.36;173.16;105;117;126.9;137.86;155.02;177.02;195.7;127;172;296;304.1;403.4</v>
+        <v>niederbipp;409.2;398.6;393.4;357.8;347.8;322.2;308;290;286.8;271.4;252.6;236.2;187.6;162.2;136;107.8;75;28;;15.6;19.6;28.64;42.02;66.76;74.34;110.16;123.36;137.56;150.56;163.56;168.96;198.36;204.56;231.56;264.76;286.76;311.76;329.56;51.22;75.22;96.02;125.82;132.42;140.82;45.02;79.42;93.42;101.54;116.84;128.84;78.6;95.9;104.14;114.36;173.16;105;117;126.9;137.86;155.02;177.02;195.7;127;172;296;304.1;403.4</v>
       </c>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>424.8</v>
@@ -5577,12 +5378,12 @@
       </c>
       <c r="BT21" t="str">
         <f t="shared" si="0"/>
-        <v>neuendorf;424.8;414.2;409;373.4;363.4;337.8;323.6;305.6;302.4;287;268.2;251.8;203.2;177.8;151.6;123.4;90.6;43.6;15.6;;4;13.04;26.42;51.16;58.74;94.56;107.76;121.96;134.96;147.96;153.36;182.76;188.96;215.96;249.16;271.16;296.16;313.96;35.62;59.62;80.42;110.22;116.82;125.22;29.42;63.82;77.82;85.94;101.24;113.24;94.2;111.5;88.54;98.76;157.56;120.6;132.6;142.5;153.46;170.62;192.62;211.3;142.6;187.6;311.6;319.7;419;424.8;414.2;409;373.4;363.4;337.8;323.6;305.6;302.4;287;268.2;251.8;203.2;177.8;151.6;123.4;90.6;43.6;15.6;;4;13.04;26.42;51.16;58.74;94.56;107.76;121.96;134.96;147.96;153.36;182.76;188.96;215.96;249.16;271.16;296.16;313.96;35.62;59.62;80.42;110.22;116.82;125.22;29.42;63.82;77.82;85.94;101.24;113.24;94.2;111.5;88.54;98.76;157.56;120.6;132.6;142.5;153.46;170.62;192.62;211.3;142.6;187.6;311.6;319.7;419</v>
+        <v>neuendorf;424.8;414.2;409;373.4;363.4;337.8;323.6;305.6;302.4;287;268.2;251.8;203.2;177.8;151.6;123.4;90.6;43.6;15.6;;4;13.04;26.42;51.16;58.74;94.56;107.76;121.96;134.96;147.96;153.36;182.76;188.96;215.96;249.16;271.16;296.16;313.96;35.62;59.62;80.42;110.22;116.82;125.22;29.42;63.82;77.82;85.94;101.24;113.24;94.2;111.5;88.54;98.76;157.56;120.6;132.6;142.5;153.46;170.62;192.62;211.3;142.6;187.6;311.6;319.7;419</v>
       </c>
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>428.8</v>
@@ -5784,12 +5585,12 @@
       </c>
       <c r="BT22" t="str">
         <f t="shared" si="0"/>
-        <v>härkingen;428.8;418.2;413;377.4;367.4;341.8;327.6;309.6;306.4;291;272.2;255.8;207.2;181.8;155.6;127.4;94.6;47.6;19.6;4;;9.04;22.42;47.16;54.74;90.56;103.76;117.96;130.96;143.96;149.36;178.76;184.96;211.96;245.16;267.16;292.16;309.96;31.62;55.62;76.42;106.22;112.82;121.22;25.42;59.82;73.82;81.94;97.24;109.24;98.2;115.5;84.54;94.76;153.56;124.6;136.6;146.5;157.46;174.62;196.62;215.3;146.6;191.6;315.6;323.7;423;428.8;418.2;413;377.4;367.4;341.8;327.6;309.6;306.4;291;272.2;255.8;207.2;181.8;155.6;127.4;94.6;47.6;19.6;4;;9.04;22.42;47.16;54.74;90.56;103.76;117.96;130.96;143.96;149.36;178.76;184.96;211.96;245.16;267.16;292.16;309.96;31.62;55.62;76.42;106.22;112.82;121.22;25.42;59.82;73.82;81.94;97.24;109.24;98.2;115.5;84.54;94.76;153.56;124.6;136.6;146.5;157.46;174.62;196.62;215.3;146.6;191.6;315.6;323.7;423</v>
+        <v>harkingen;428.8;418.2;413;377.4;367.4;341.8;327.6;309.6;306.4;291;272.2;255.8;207.2;181.8;155.6;127.4;94.6;47.6;19.6;4;;9.04;22.42;47.16;54.74;90.56;103.76;117.96;130.96;143.96;149.36;178.76;184.96;211.96;245.16;267.16;292.16;309.96;31.62;55.62;76.42;106.22;112.82;121.22;25.42;59.82;73.82;81.94;97.24;109.24;98.2;115.5;84.54;94.76;153.56;124.6;136.6;146.5;157.46;174.62;196.62;215.3;146.6;191.6;315.6;323.7;423</v>
       </c>
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>437.84</v>
@@ -5991,12 +5792,12 @@
       </c>
       <c r="BT23" t="str">
         <f t="shared" si="0"/>
-        <v>rickenbach-wangen;437.84;427.24;422.04;386.44;376.44;350.84;336.64;318.64;315.44;300.04;281.24;264.84;216.24;190.84;164.64;136.44;103.64;56.64;28.64;13.04;9.04;;13.38;38.12;45.7;81.52;94.72;108.92;121.92;134.92;140.32;169.72;175.92;202.92;236.12;258.12;283.12;300.92;22.58;46.58;67.38;97.18;103.78;112.18;16.38;50.78;64.78;72.9;88.2;100.2;107.24;124.54;75.5;85.72;144.52;133.64;145.64;155.54;166.5;183.66;205.66;224.34;155.64;200.64;324.64;332.74;432.04;437.84;427.24;422.04;386.44;376.44;350.84;336.64;318.64;315.44;300.04;281.24;264.84;216.24;190.84;164.64;136.44;103.64;56.64;28.64;13.04;9.04;;13.38;38.12;45.7;81.52;94.72;108.92;121.92;134.92;140.32;169.72;175.92;202.92;236.12;258.12;283.12;300.92;22.58;46.58;67.38;97.18;103.78;112.18;16.38;50.78;64.78;72.9;88.2;100.2;107.24;124.54;75.5;85.72;144.52;133.64;145.64;155.54;166.5;183.66;205.66;224.34;155.64;200.64;324.64;332.74;432.04</v>
+        <v>rickenbach-wangen;437.84;427.24;422.04;386.44;376.44;350.84;336.64;318.64;315.44;300.04;281.24;264.84;216.24;190.84;164.64;136.44;103.64;56.64;28.64;13.04;9.04;;13.38;38.12;45.7;81.52;94.72;108.92;121.92;134.92;140.32;169.72;175.92;202.92;236.12;258.12;283.12;300.92;22.58;46.58;67.38;97.18;103.78;112.18;16.38;50.78;64.78;72.9;88.2;100.2;107.24;124.54;75.5;85.72;144.52;133.64;145.64;155.54;166.5;183.66;205.66;224.34;155.64;200.64;324.64;332.74;432.04</v>
       </c>
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>451.22</v>
@@ -6198,12 +5999,12 @@
       </c>
       <c r="BT24" t="str">
         <f t="shared" si="0"/>
-        <v>dulliken süd;451.22;440.62;435.42;399.82;389.82;364.22;350.02;332.02;328.82;313.42;294.62;278.22;229.62;204.22;178.02;149.82;117.02;70.02;42.02;26.42;22.42;13.38;;24.74;32.32;68.14;81.34;95.54;108.54;121.54;126.94;156.34;162.54;189.54;222.74;244.74;269.74;287.54;9.2;33.2;54;83.8;90.4;98.8;3;37.4;51.4;59.52;74.82;86.82;120.62;137.92;62.12;72.34;131.14;147.02;159.02;168.92;179.88;197.04;219.04;237.72;169.02;214.02;338.02;346.12;445.42;451.22;440.62;435.42;399.82;389.82;364.22;350.02;332.02;328.82;313.42;294.62;278.22;229.62;204.22;178.02;149.82;117.02;70.02;42.02;26.42;22.42;13.38;;24.74;32.32;68.14;81.34;95.54;108.54;121.54;126.94;156.34;162.54;189.54;222.74;244.74;269.74;287.54;9.2;33.2;54;83.8;90.4;98.8;3;37.4;51.4;59.52;74.82;86.82;120.62;137.92;62.12;72.34;131.14;147.02;159.02;168.92;179.88;197.04;219.04;237.72;169.02;214.02;338.02;346.12;445.42</v>
+        <v>dulliken sud;451.22;440.62;435.42;399.82;389.82;364.22;350.02;332.02;328.82;313.42;294.62;278.22;229.62;204.22;178.02;149.82;117.02;70.02;42.02;26.42;22.42;13.38;;24.74;32.32;68.14;81.34;95.54;108.54;121.54;126.94;156.34;162.54;189.54;222.74;244.74;269.74;287.54;9.2;33.2;54;83.8;90.4;98.8;3;37.4;51.4;59.52;74.82;86.82;120.62;137.92;62.12;72.34;131.14;147.02;159.02;168.92;179.88;197.04;219.04;237.72;169.02;214.02;338.02;346.12;445.42</v>
       </c>
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>475.96</v>
@@ -6405,12 +6206,12 @@
       </c>
       <c r="BT25" t="str">
         <f t="shared" si="0"/>
-        <v>suhr;475.96;465.36;460.16;424.56;414.56;388.96;374.76;356.76;353.56;338.16;319.36;302.96;254.36;228.96;202.76;174.56;141.76;94.76;66.76;51.16;47.16;38.12;24.74;;7.58;43.4;56.6;70.8;83.8;96.8;102.2;131.6;137.8;164.8;198;220;245;262.8;33.94;57.94;78.74;108.54;115.14;123.54;27.74;62.14;76.14;84.26;99.56;111.56;145.36;162.66;86.86;47.6;106.4;171.76;183.76;193.66;204.62;221.78;243.78;262.46;193.76;238.76;362.76;370.86;470.16;475.96;465.36;460.16;424.56;414.56;388.96;374.76;356.76;353.56;338.16;319.36;302.96;254.36;228.96;202.76;174.56;141.76;94.76;66.76;51.16;47.16;38.12;24.74;;7.58;43.4;56.6;70.8;83.8;96.8;102.2;131.6;137.8;164.8;198;220;245;262.8;33.94;57.94;78.74;108.54;115.14;123.54;27.74;62.14;76.14;84.26;99.56;111.56;145.36;162.66;86.86;47.6;106.4;171.76;183.76;193.66;204.62;221.78;243.78;262.46;193.76;238.76;362.76;370.86;470.16</v>
+        <v>suhr;475.96;465.36;460.16;424.56;414.56;388.96;374.76;356.76;353.56;338.16;319.36;302.96;254.36;228.96;202.76;174.56;141.76;94.76;66.76;51.16;47.16;38.12;24.74;;7.58;43.4;56.6;70.8;83.8;96.8;102.2;131.6;137.8;164.8;198;220;245;262.8;33.94;57.94;78.74;108.54;115.14;123.54;27.74;62.14;76.14;84.26;99.56;111.56;145.36;162.66;86.86;47.6;106.4;171.76;183.76;193.66;204.62;221.78;243.78;262.46;193.76;238.76;362.76;370.86;470.16</v>
       </c>
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>483.54</v>
@@ -6612,12 +6413,12 @@
       </c>
       <c r="BT26" t="str">
         <f t="shared" si="0"/>
-        <v>schafisheim;483.54;472.94;467.74;432.14;422.14;396.54;382.34;364.34;361.14;345.74;326.94;310.54;261.94;236.54;210.34;182.14;149.34;102.34;74.34;58.74;54.74;45.7;32.32;7.58;;35.82;49.02;63.22;76.22;89.22;94.62;124.02;130.22;157.22;190.42;212.42;237.42;255.22;41.52;65.52;86.32;116.12;122.72;131.12;35.32;69.72;83.72;91.84;107.14;119.14;152.94;170.24;94.44;40.02;98.82;179.34;191.34;201.24;212.2;229.36;251.36;270.04;201.34;246.34;370.34;378.44;477.74;483.54;472.94;467.74;432.14;422.14;396.54;382.34;364.34;361.14;345.74;326.94;310.54;261.94;236.54;210.34;182.14;149.34;102.34;74.34;58.74;54.74;45.7;32.32;7.58;;35.82;49.02;63.22;76.22;89.22;94.62;124.02;130.22;157.22;190.42;212.42;237.42;255.22;41.52;65.52;86.32;116.12;122.72;131.12;35.32;69.72;83.72;91.84;107.14;119.14;152.94;170.24;94.44;40.02;98.82;179.34;191.34;201.24;212.2;229.36;251.36;270.04;201.34;246.34;370.34;378.44;477.74</v>
+        <v>schafisheim;483.54;472.94;467.74;432.14;422.14;396.54;382.34;364.34;361.14;345.74;326.94;310.54;261.94;236.54;210.34;182.14;149.34;102.34;74.34;58.74;54.74;45.7;32.32;7.58;;35.82;49.02;63.22;76.22;89.22;94.62;124.02;130.22;157.22;190.42;212.42;237.42;255.22;41.52;65.52;86.32;116.12;122.72;131.12;35.32;69.72;83.72;91.84;107.14;119.14;152.94;170.24;94.44;40.02;98.82;179.34;191.34;201.24;212.2;229.36;251.36;270.04;201.34;246.34;370.34;378.44;477.74</v>
       </c>
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>519.36</v>
@@ -6819,12 +6620,12 @@
       </c>
       <c r="BT27" t="str">
         <f t="shared" si="0"/>
-        <v>heitersberg;519.36;508.76;503.56;467.96;457.96;432.36;418.16;400.16;396.96;381.56;362.76;346.36;297.76;272.36;246.16;217.96;185.16;138.16;110.16;94.56;90.56;81.52;68.14;43.4;35.82;;13.2;27.4;40.4;53.4;58.8;88.2;94.4;121.4;154.6;176.6;201.6;219.4;77.34;101.34;122.14;151.94;158.54;166.94;71.14;105.54;119.54;127.66;142.96;154.96;188.76;206.06;130.26;4.2;63;215.16;227.16;237.06;248.02;265.18;287.18;305.86;237.16;282.16;406.16;414.26;513.56;519.36;508.76;503.56;467.96;457.96;432.36;418.16;400.16;396.96;381.56;362.76;346.36;297.76;272.36;246.16;217.96;185.16;138.16;110.16;94.56;90.56;81.52;68.14;43.4;35.82;;13.2;27.4;40.4;53.4;58.8;88.2;94.4;121.4;154.6;176.6;201.6;219.4;77.34;101.34;122.14;151.94;158.54;166.94;71.14;105.54;119.54;127.66;142.96;154.96;188.76;206.06;130.26;4.2;63;215.16;227.16;237.06;248.02;265.18;287.18;305.86;237.16;282.16;406.16;414.26;513.56</v>
+        <v>heitersberg;519.36;508.76;503.56;467.96;457.96;432.36;418.16;400.16;396.96;381.56;362.76;346.36;297.76;272.36;246.16;217.96;185.16;138.16;110.16;94.56;90.56;81.52;68.14;43.4;35.82;;13.2;27.4;40.4;53.4;58.8;88.2;94.4;121.4;154.6;176.6;201.6;219.4;77.34;101.34;122.14;151.94;158.54;166.94;71.14;105.54;119.54;127.66;142.96;154.96;188.76;206.06;130.26;4.2;63;215.16;227.16;237.06;248.02;265.18;287.18;305.86;237.16;282.16;406.16;414.26;513.56</v>
       </c>
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>532.55999999999995</v>
@@ -7026,12 +6827,12 @@
       </c>
       <c r="BT28" t="str">
         <f t="shared" si="0"/>
-        <v>urdorf;532.56;521.96;516.76;481.16;471.16;445.56;431.36;413.36;410.16;394.76;375.96;359.56;310.96;285.56;259.36;231.16;198.36;151.36;123.36;107.76;103.76;94.72;81.34;56.6;49.02;13.2;;14.2;27.2;40.2;45.6;75;81.2;108.2;141.4;163.4;188.4;206.2;90.54;114.54;135.34;165.14;171.74;180.14;84.34;118.74;132.74;140.86;156.16;168.16;201.96;219.26;143.46;17.4;49.8;228.36;240.36;250.26;261.22;278.38;300.38;319.06;250.36;295.36;419.36;427.46;526.76;532.56;521.96;516.76;481.16;471.16;445.56;431.36;413.36;410.16;394.76;375.96;359.56;310.96;285.56;259.36;231.16;198.36;151.36;123.36;107.76;103.76;94.72;81.34;56.6;49.02;13.2;;14.2;27.2;40.2;45.6;75;81.2;108.2;141.4;163.4;188.4;206.2;90.54;114.54;135.34;165.14;171.74;180.14;84.34;118.74;132.74;140.86;156.16;168.16;201.96;219.26;143.46;17.4;49.8;228.36;240.36;250.26;261.22;278.38;300.38;319.06;250.36;295.36;419.36;427.46;526.76</v>
+        <v>urdorf;532.56;521.96;516.76;481.16;471.16;445.56;431.36;413.36;410.16;394.76;375.96;359.56;310.96;285.56;259.36;231.16;198.36;151.36;123.36;107.76;103.76;94.72;81.34;56.6;49.02;13.2;;14.2;27.2;40.2;45.6;75;81.2;108.2;141.4;163.4;188.4;206.2;90.54;114.54;135.34;165.14;171.74;180.14;84.34;118.74;132.74;140.86;156.16;168.16;201.96;219.26;143.46;17.4;49.8;228.36;240.36;250.26;261.22;278.38;300.38;319.06;250.36;295.36;419.36;427.46;526.76</v>
       </c>
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>546.76</v>
@@ -7233,12 +7034,12 @@
       </c>
       <c r="BT29" t="str">
         <f t="shared" si="0"/>
-        <v>zürich aussersihl;546.76;536.16;530.96;495.36;485.36;459.76;445.56;427.56;424.36;408.96;390.16;373.76;325.16;299.76;273.56;245.36;212.56;165.56;137.56;121.96;117.96;108.92;95.54;70.8;63.22;27.4;14.2;;13;26;31.4;60.8;67;94;127.2;149.2;174.2;192;104.74;128.74;149.54;179.34;185.94;194.34;98.54;132.94;146.94;155.06;170.36;182.36;216.16;233.46;157.66;31.6;35.6;242.56;254.56;264.46;275.42;292.58;314.58;333.26;264.56;309.56;433.56;441.66;540.96;546.76;536.16;530.96;495.36;485.36;459.76;445.56;427.56;424.36;408.96;390.16;373.76;325.16;299.76;273.56;245.36;212.56;165.56;137.56;121.96;117.96;108.92;95.54;70.8;63.22;27.4;14.2;;13;26;31.4;60.8;67;94;127.2;149.2;174.2;192;104.74;128.74;149.54;179.34;185.94;194.34;98.54;132.94;146.94;155.06;170.36;182.36;216.16;233.46;157.66;31.6;35.6;242.56;254.56;264.46;275.42;292.58;314.58;333.26;264.56;309.56;433.56;441.66;540.96</v>
+        <v>zurich aussersihl;546.76;536.16;530.96;495.36;485.36;459.76;445.56;427.56;424.36;408.96;390.16;373.76;325.16;299.76;273.56;245.36;212.56;165.56;137.56;121.96;117.96;108.92;95.54;70.8;63.22;27.4;14.2;;13;26;31.4;60.8;67;94;127.2;149.2;174.2;192;104.74;128.74;149.54;179.34;185.94;194.34;98.54;132.94;146.94;155.06;170.36;182.36;216.16;233.46;157.66;31.6;35.6;242.56;254.56;264.46;275.42;292.58;314.58;333.26;264.56;309.56;433.56;441.66;540.96</v>
       </c>
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>559.76</v>
@@ -7440,12 +7241,12 @@
       </c>
       <c r="BT30" t="str">
         <f t="shared" si="0"/>
-        <v>zürich nord;559.76;549.16;543.96;508.36;498.36;472.76;458.56;440.56;437.36;421.96;403.16;386.76;338.16;312.76;286.56;258.36;225.56;178.56;150.56;134.96;130.96;121.92;108.54;83.8;76.22;40.4;27.2;13;;13;18.4;47.8;54;81;114.2;136.2;161.2;179;117.74;141.74;162.54;192.34;198.94;207.34;111.54;145.94;159.94;168.06;183.36;195.36;229.16;246.46;170.66;44.6;22.6;255.56;267.56;277.46;288.42;305.58;327.58;346.26;277.56;322.56;446.56;454.66;553.96;559.76;549.16;543.96;508.36;498.36;472.76;458.56;440.56;437.36;421.96;403.16;386.76;338.16;312.76;286.56;258.36;225.56;178.56;150.56;134.96;130.96;121.92;108.54;83.8;76.22;40.4;27.2;13;;13;18.4;47.8;54;81;114.2;136.2;161.2;179;117.74;141.74;162.54;192.34;198.94;207.34;111.54;145.94;159.94;168.06;183.36;195.36;229.16;246.46;170.66;44.6;22.6;255.56;267.56;277.46;288.42;305.58;327.58;346.26;277.56;322.56;446.56;454.66;553.96</v>
+        <v>zurich nord;559.76;549.16;543.96;508.36;498.36;472.76;458.56;440.56;437.36;421.96;403.16;386.76;338.16;312.76;286.56;258.36;225.56;178.56;150.56;134.96;130.96;121.92;108.54;83.8;76.22;40.4;27.2;13;;13;18.4;47.8;54;81;114.2;136.2;161.2;179;117.74;141.74;162.54;192.34;198.94;207.34;111.54;145.94;159.94;168.06;183.36;195.36;229.16;246.46;170.66;44.6;22.6;255.56;267.56;277.46;288.42;305.58;327.58;346.26;277.56;322.56;446.56;454.66;553.96</v>
       </c>
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>572.76</v>
@@ -7647,12 +7448,12 @@
       </c>
       <c r="BT31" t="str">
         <f t="shared" si="0"/>
-        <v>zürich flughafen;572.76;562.16;556.96;521.36;511.36;485.76;471.56;453.56;450.36;434.96;416.16;399.76;351.16;325.76;299.56;271.36;238.56;191.56;163.56;147.96;143.96;134.92;121.54;96.8;89.22;53.4;40.2;26;13;;5.4;34.8;41;68;101.2;123.2;148.2;166;130.74;154.74;175.54;205.34;211.94;220.34;124.54;158.94;172.94;181.06;196.36;208.36;242.16;259.46;183.66;57.6;9.6;268.56;280.56;290.46;301.42;318.58;340.58;359.26;290.56;335.56;459.56;467.66;566.96;572.76;562.16;556.96;521.36;511.36;485.76;471.56;453.56;450.36;434.96;416.16;399.76;351.16;325.76;299.56;271.36;238.56;191.56;163.56;147.96;143.96;134.92;121.54;96.8;89.22;53.4;40.2;26;13;;5.4;34.8;41;68;101.2;123.2;148.2;166;130.74;154.74;175.54;205.34;211.94;220.34;124.54;158.94;172.94;181.06;196.36;208.36;242.16;259.46;183.66;57.6;9.6;268.56;280.56;290.46;301.42;318.58;340.58;359.26;290.56;335.56;459.56;467.66;566.96</v>
+        <v>zurich flughafen;572.76;562.16;556.96;521.36;511.36;485.76;471.56;453.56;450.36;434.96;416.16;399.76;351.16;325.76;299.56;271.36;238.56;191.56;163.56;147.96;143.96;134.92;121.54;96.8;89.22;53.4;40.2;26;13;;5.4;34.8;41;68;101.2;123.2;148.2;166;130.74;154.74;175.54;205.34;211.94;220.34;124.54;158.94;172.94;181.06;196.36;208.36;242.16;259.46;183.66;57.6;9.6;268.56;280.56;290.46;301.42;318.58;340.58;359.26;290.56;335.56;459.56;467.66;566.96</v>
       </c>
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>578.16</v>
@@ -7854,12 +7655,12 @@
       </c>
       <c r="BT32" t="str">
         <f t="shared" si="0"/>
-        <v>aegert;578.16;567.56;562.36;526.76;516.76;491.16;476.96;458.96;455.76;440.36;421.56;405.16;356.56;331.16;304.96;276.76;243.96;196.96;168.96;153.36;149.36;140.32;126.94;102.2;94.62;58.8;45.6;31.4;18.4;5.4;;29.4;35.6;62.6;95.8;117.8;142.8;160.6;136.14;160.14;180.94;210.74;217.34;225.74;129.94;164.34;178.34;186.46;201.76;213.76;247.56;264.86;189.06;63;4.2;273.96;285.96;295.86;306.82;323.98;345.98;364.66;295.96;340.96;464.96;473.06;572.36;578.16;567.56;562.36;526.76;516.76;491.16;476.96;458.96;455.76;440.36;421.56;405.16;356.56;331.16;304.96;276.76;243.96;196.96;168.96;153.36;149.36;140.32;126.94;102.2;94.62;58.8;45.6;31.4;18.4;5.4;;29.4;35.6;62.6;95.8;117.8;142.8;160.6;136.14;160.14;180.94;210.74;217.34;225.74;129.94;164.34;178.34;186.46;201.76;213.76;247.56;264.86;189.06;63;4.2;273.96;285.96;295.86;306.82;323.98;345.98;364.66;295.96;340.96;464.96;473.06;572.36</v>
+        <v>aegert;578.16;567.56;562.36;526.76;516.76;491.16;476.96;458.96;455.76;440.36;421.56;405.16;356.56;331.16;304.96;276.76;243.96;196.96;168.96;153.36;149.36;140.32;126.94;102.2;94.62;58.8;45.6;31.4;18.4;5.4;;29.4;35.6;62.6;95.8;117.8;142.8;160.6;136.14;160.14;180.94;210.74;217.34;225.74;129.94;164.34;178.34;186.46;201.76;213.76;247.56;264.86;189.06;63;4.2;273.96;285.96;295.86;306.82;323.98;345.98;364.66;295.96;340.96;464.96;473.06;572.36</v>
       </c>
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>607.55999999999995</v>
@@ -8061,12 +7862,12 @@
       </c>
       <c r="BT33" t="str">
         <f t="shared" si="0"/>
-        <v>winterthur;607.56;596.96;591.76;556.16;546.16;520.56;506.36;488.36;485.16;469.76;450.96;434.56;385.96;360.56;334.36;306.16;273.36;226.36;198.36;182.76;178.76;169.72;156.34;131.6;124.02;88.2;75;60.8;47.8;34.8;29.4;;6.2;33.2;66.4;88.4;113.4;131.2;165.54;189.54;210.34;240.14;246.74;255.14;159.34;193.74;207.74;215.86;231.16;243.16;276.96;294.26;218.46;92.4;33.6;303.36;315.36;325.26;336.22;353.38;375.38;394.06;325.36;370.36;494.36;502.46;601.76;607.56;596.96;591.76;556.16;546.16;520.56;506.36;488.36;485.16;469.76;450.96;434.56;385.96;360.56;334.36;306.16;273.36;226.36;198.36;182.76;178.76;169.72;156.34;131.6;124.02;88.2;75;60.8;47.8;34.8;29.4;;6.2;33.2;66.4;88.4;113.4;131.2;165.54;189.54;210.34;240.14;246.74;255.14;159.34;193.74;207.74;215.86;231.16;243.16;276.96;294.26;218.46;92.4;33.6;303.36;315.36;325.26;336.22;353.38;375.38;394.06;325.36;370.36;494.36;502.46;601.76</v>
+        <v>winterthur;607.56;596.96;591.76;556.16;546.16;520.56;506.36;488.36;485.16;469.76;450.96;434.56;385.96;360.56;334.36;306.16;273.36;226.36;198.36;182.76;178.76;169.72;156.34;131.6;124.02;88.2;75;60.8;47.8;34.8;29.4;;6.2;33.2;66.4;88.4;113.4;131.2;165.54;189.54;210.34;240.14;246.74;255.14;159.34;193.74;207.74;215.86;231.16;243.16;276.96;294.26;218.46;92.4;33.6;303.36;315.36;325.26;336.22;353.38;375.38;394.06;325.36;370.36;494.36;502.46;601.76</v>
       </c>
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>613.76</v>
@@ -8268,12 +8069,12 @@
       </c>
       <c r="BT34" t="str">
         <f t="shared" si="0"/>
-        <v>winterthur hegi;613.76;603.16;597.96;562.36;552.36;526.76;512.56;494.56;491.36;475.96;457.16;440.76;392.16;366.76;340.56;312.36;279.56;232.56;204.56;188.96;184.96;175.92;162.54;137.8;130.22;94.4;81.2;67;54;41;35.6;6.2;;27;60.2;82.2;107.2;125;171.74;195.74;216.54;246.34;252.94;261.34;165.54;199.94;213.94;222.06;237.36;249.36;283.16;300.46;224.66;98.6;39.8;309.56;321.56;331.46;342.42;359.58;381.58;400.26;331.56;376.56;500.56;508.66;607.96;613.76;603.16;597.96;562.36;552.36;526.76;512.56;494.56;491.36;475.96;457.16;440.76;392.16;366.76;340.56;312.36;279.56;232.56;204.56;188.96;184.96;175.92;162.54;137.8;130.22;94.4;81.2;67;54;41;35.6;6.2;;27;60.2;82.2;107.2;125;171.74;195.74;216.54;246.34;252.94;261.34;165.54;199.94;213.94;222.06;237.36;249.36;283.16;300.46;224.66;98.6;39.8;309.56;321.56;331.46;342.42;359.58;381.58;400.26;331.56;376.56;500.56;508.66;607.96</v>
+        <v>winterthur hegi;613.76;603.16;597.96;562.36;552.36;526.76;512.56;494.56;491.36;475.96;457.16;440.76;392.16;366.76;340.56;312.36;279.56;232.56;204.56;188.96;184.96;175.92;162.54;137.8;130.22;94.4;81.2;67;54;41;35.6;6.2;;27;60.2;82.2;107.2;125;171.74;195.74;216.54;246.34;252.94;261.34;165.54;199.94;213.94;222.06;237.36;249.36;283.16;300.46;224.66;98.6;39.8;309.56;321.56;331.46;342.42;359.58;381.58;400.26;331.56;376.56;500.56;508.66;607.96</v>
       </c>
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>640.76</v>
@@ -8475,12 +8276,12 @@
       </c>
       <c r="BT35" t="str">
         <f t="shared" si="0"/>
-        <v>frauenfeld;640.76;630.16;624.96;589.36;579.36;553.76;539.56;521.56;518.36;502.96;484.16;467.76;419.16;393.76;367.56;339.36;306.56;259.56;231.56;215.96;211.96;202.92;189.54;164.8;157.22;121.4;108.2;94;81;68;62.6;33.2;27;;33.2;55.2;80.2;98;198.74;222.74;243.54;273.34;279.94;288.34;192.54;226.94;240.94;249.06;264.36;276.36;310.16;327.46;251.66;125.6;66.8;336.56;348.56;358.46;369.42;386.58;408.58;427.26;358.56;403.56;527.56;535.66;634.96;640.76;630.16;624.96;589.36;579.36;553.76;539.56;521.56;518.36;502.96;484.16;467.76;419.16;393.76;367.56;339.36;306.56;259.56;231.56;215.96;211.96;202.92;189.54;164.8;157.22;121.4;108.2;94;81;68;62.6;33.2;27;;33.2;55.2;80.2;98;198.74;222.74;243.54;273.34;279.94;288.34;192.54;226.94;240.94;249.06;264.36;276.36;310.16;327.46;251.66;125.6;66.8;336.56;348.56;358.46;369.42;386.58;408.58;427.26;358.56;403.56;527.56;535.66;634.96</v>
+        <v>frauenfeld;640.76;630.16;624.96;589.36;579.36;553.76;539.56;521.56;518.36;502.96;484.16;467.76;419.16;393.76;367.56;339.36;306.56;259.56;231.56;215.96;211.96;202.92;189.54;164.8;157.22;121.4;108.2;94;81;68;62.6;33.2;27;;33.2;55.2;80.2;98;198.74;222.74;243.54;273.34;279.94;288.34;192.54;226.94;240.94;249.06;264.36;276.36;310.16;327.46;251.66;125.6;66.8;336.56;348.56;358.46;369.42;386.58;408.58;427.26;358.56;403.56;527.56;535.66;634.96</v>
       </c>
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>673.95999999999992</v>
@@ -8682,12 +8483,12 @@
       </c>
       <c r="BT36" t="str">
         <f t="shared" si="0"/>
-        <v>wil;673.96;663.36;658.16;622.56;612.56;586.96;572.76;554.76;551.56;536.16;517.36;500.96;452.36;426.96;400.76;372.56;339.76;292.76;264.76;249.16;245.16;236.12;222.74;198;190.42;154.6;141.4;127.2;114.2;101.2;95.8;66.4;60.2;33.2;;22;47;64.8;231.94;255.94;276.74;306.54;313.14;321.54;225.74;260.14;274.14;282.26;297.56;309.56;343.36;360.66;284.86;158.8;100;369.76;381.76;391.66;402.62;419.78;441.78;460.46;391.76;436.76;560.76;568.86;668.16;673.96;663.36;658.16;622.56;612.56;586.96;572.76;554.76;551.56;536.16;517.36;500.96;452.36;426.96;400.76;372.56;339.76;292.76;264.76;249.16;245.16;236.12;222.74;198;190.42;154.6;141.4;127.2;114.2;101.2;95.8;66.4;60.2;33.2;;22;47;64.8;231.94;255.94;276.74;306.54;313.14;321.54;225.74;260.14;274.14;282.26;297.56;309.56;343.36;360.66;284.86;158.8;100;369.76;381.76;391.66;402.62;419.78;441.78;460.46;391.76;436.76;560.76;568.86;668.16</v>
+        <v>wil;673.96;663.36;658.16;622.56;612.56;586.96;572.76;554.76;551.56;536.16;517.36;500.96;452.36;426.96;400.76;372.56;339.76;292.76;264.76;249.16;245.16;236.12;222.74;198;190.42;154.6;141.4;127.2;114.2;101.2;95.8;66.4;60.2;33.2;;22;47;64.8;231.94;255.94;276.74;306.54;313.14;321.54;225.74;260.14;274.14;282.26;297.56;309.56;343.36;360.66;284.86;158.8;100;369.76;381.76;391.66;402.62;419.78;441.78;460.46;391.76;436.76;560.76;568.86;668.16</v>
       </c>
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>695.95999999999992</v>
@@ -8889,12 +8690,12 @@
       </c>
       <c r="BT37" t="str">
         <f t="shared" si="0"/>
-        <v>uzwil-oberbüren;695.96;685.36;680.16;644.56;634.56;608.96;594.76;576.76;573.56;558.16;539.36;522.96;474.36;448.96;422.76;394.56;361.76;314.76;286.76;271.16;267.16;258.12;244.74;220;212.42;176.6;163.4;149.2;136.2;123.2;117.8;88.4;82.2;55.2;22;;25;42.8;253.94;277.94;298.74;328.54;335.14;343.54;247.74;282.14;296.14;304.26;319.56;331.56;365.36;382.66;306.86;180.8;122;391.76;403.76;413.66;424.62;441.78;463.78;482.46;413.76;458.76;582.76;590.86;690.16;695.96;685.36;680.16;644.56;634.56;608.96;594.76;576.76;573.56;558.16;539.36;522.96;474.36;448.96;422.76;394.56;361.76;314.76;286.76;271.16;267.16;258.12;244.74;220;212.42;176.6;163.4;149.2;136.2;123.2;117.8;88.4;82.2;55.2;22;;25;42.8;253.94;277.94;298.74;328.54;335.14;343.54;247.74;282.14;296.14;304.26;319.56;331.56;365.36;382.66;306.86;180.8;122;391.76;403.76;413.66;424.62;441.78;463.78;482.46;413.76;458.76;582.76;590.86;690.16</v>
+        <v>uzwil-oberburen;695.96;685.36;680.16;644.56;634.56;608.96;594.76;576.76;573.56;558.16;539.36;522.96;474.36;448.96;422.76;394.56;361.76;314.76;286.76;271.16;267.16;258.12;244.74;220;212.42;176.6;163.4;149.2;136.2;123.2;117.8;88.4;82.2;55.2;22;;25;42.8;253.94;277.94;298.74;328.54;335.14;343.54;247.74;282.14;296.14;304.26;319.56;331.56;365.36;382.66;306.86;180.8;122;391.76;403.76;413.66;424.62;441.78;463.78;482.46;413.76;458.76;582.76;590.86;690.16</v>
       </c>
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>720.95999999999992</v>
@@ -9096,12 +8897,12 @@
       </c>
       <c r="BT38" t="str">
         <f t="shared" si="0"/>
-        <v>gossaucst;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</v>
+        <v>gossaucst;720.96;710.36;705.16;669.56;659.56;633.96;619.76;601.76;598.56;583.16;564.36;547.96;499.36;473.96;447.76;419.56;386.76;339.76;311.76;296.16;292.16;283.12;269.74;245;237.42;201.6;188.4;174.2;161.2;148.2;142.8;113.4;107.2;80.2;47;25;;17.8;278.94;302.94;323.74;353.54;360.14;368.54;272.74;307.14;321.14;329.26;344.56;356.56;390.36;407.66;331.86;205.8;147;416.76;428.76;438.66;449.62;466.78;488.78;507.46;438.76;483.76;607.76;615.86;715.16</v>
       </c>
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>738.76</v>
@@ -9303,12 +9104,12 @@
       </c>
       <c r="BT39" t="str">
         <f t="shared" si="0"/>
-        <v>st. gallen st. fiden;738.76;728.16;722.96;687.36;677.36;651.76;637.56;619.56;616.36;600.96;582.16;565.76;517.16;491.76;465.56;437.36;404.56;357.56;329.56;313.96;309.96;300.92;287.54;262.8;255.22;219.4;206.2;192;179;166;160.6;131.2;125;98;64.8;42.8;17.8;;296.74;320.74;341.54;371.34;377.94;386.34;290.54;324.94;338.94;347.06;362.36;374.36;408.16;425.46;349.66;223.6;164.8;434.56;446.56;456.46;467.42;484.58;506.58;525.26;456.56;501.56;625.56;633.66;732.96;738.76;728.16;722.96;687.36;677.36;651.76;637.56;619.56;616.36;600.96;582.16;565.76;517.16;491.76;465.56;437.36;404.56;357.56;329.56;313.96;309.96;300.92;287.54;262.8;255.22;219.4;206.2;192;179;166;160.6;131.2;125;98;64.8;42.8;17.8;;296.74;320.74;341.54;371.34;377.94;386.34;290.54;324.94;338.94;347.06;362.36;374.36;408.16;425.46;349.66;223.6;164.8;434.56;446.56;456.46;467.42;484.58;506.58;525.26;456.56;501.56;625.56;633.66;732.96</v>
+        <v>st. gallen st. fiden;738.76;728.16;722.96;687.36;677.36;651.76;637.56;619.56;616.36;600.96;582.16;565.76;517.16;491.76;465.56;437.36;404.56;357.56;329.56;313.96;309.96;300.92;287.54;262.8;255.22;219.4;206.2;192;179;166;160.6;131.2;125;98;64.8;42.8;17.8;;296.74;320.74;341.54;371.34;377.94;386.34;290.54;324.94;338.94;347.06;362.36;374.36;408.16;425.46;349.66;223.6;164.8;434.56;446.56;456.46;467.42;484.58;506.58;525.26;456.56;501.56;625.56;633.66;732.96</v>
       </c>
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>460.42</v>
@@ -9510,12 +9311,12 @@
       </c>
       <c r="BT40" t="str">
         <f t="shared" si="0"/>
-        <v>oftringen-zofingen;460.42;449.82;444.62;409.02;399.02;373.42;359.22;341.22;338.02;322.62;303.82;287.42;238.82;213.42;187.22;159.02;126.22;79.22;51.22;35.62;31.62;22.58;9.2;33.94;41.52;77.34;90.54;104.74;117.74;130.74;136.14;165.54;171.74;198.74;231.94;253.94;278.94;296.74;;24;44.8;74.6;81.2;89.6;12.2;46.6;60.6;68.72;84.02;96.02;129.82;147.12;71.32;81.54;140.34;156.22;168.22;178.12;189.08;206.24;228.24;246.92;178.22;223.22;347.22;355.32;454.62;460.42;449.82;444.62;409.02;399.02;373.42;359.22;341.22;338.02;322.62;303.82;287.42;238.82;213.42;187.22;159.02;126.22;79.22;51.22;35.62;31.62;22.58;9.2;33.94;41.52;77.34;90.54;104.74;117.74;130.74;136.14;165.54;171.74;198.74;231.94;253.94;278.94;296.74;;24;44.8;74.6;81.2;89.6;12.2;46.6;60.6;68.72;84.02;96.02;129.82;147.12;71.32;81.54;140.34;156.22;168.22;178.12;189.08;206.24;228.24;246.92;178.22;223.22;347.22;355.32;454.62</v>
+        <v>oftringen-zofingen;460.42;449.82;444.62;409.02;399.02;373.42;359.22;341.22;338.02;322.62;303.82;287.42;238.82;213.42;187.22;159.02;126.22;79.22;51.22;35.62;31.62;22.58;9.2;33.94;41.52;77.34;90.54;104.74;117.74;130.74;136.14;165.54;171.74;198.74;231.94;253.94;278.94;296.74;;24;44.8;74.6;81.2;89.6;12.2;46.6;60.6;68.72;84.02;96.02;129.82;147.12;71.32;81.54;140.34;156.22;168.22;178.12;189.08;206.24;228.24;246.92;178.22;223.22;347.22;355.32;454.62</v>
       </c>
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>484.42</v>
@@ -9717,12 +9518,12 @@
       </c>
       <c r="BT41" t="str">
         <f t="shared" si="0"/>
-        <v>dagmersellen;484.42;473.82;468.62;433.02;423.02;397.42;383.22;365.22;362.02;346.62;327.82;311.42;262.82;237.42;211.22;183.02;150.22;103.22;75.22;59.62;55.62;46.58;33.2;57.94;65.52;101.34;114.54;128.74;141.74;154.74;160.14;189.54;195.74;222.74;255.94;277.94;302.94;320.74;24;;20.8;50.6;57.2;65.6;36.2;70.6;84.6;92.72;108.02;120.02;153.82;171.12;95.32;105.54;164.34;180.22;192.22;202.12;213.08;230.24;252.24;270.92;202.22;247.22;371.22;379.32;478.62;484.42;473.82;468.62;433.02;423.02;397.42;383.22;365.22;362.02;346.62;327.82;311.42;262.82;237.42;211.22;183.02;150.22;103.22;75.22;59.62;55.62;46.58;33.2;57.94;65.52;101.34;114.54;128.74;141.74;154.74;160.14;189.54;195.74;222.74;255.94;277.94;302.94;320.74;24;;20.8;50.6;57.2;65.6;36.2;70.6;84.6;92.72;108.02;120.02;153.82;171.12;95.32;105.54;164.34;180.22;192.22;202.12;213.08;230.24;252.24;270.92;202.22;247.22;371.22;379.32;478.62</v>
+        <v>dagmersellen;484.42;473.82;468.62;433.02;423.02;397.42;383.22;365.22;362.02;346.62;327.82;311.42;262.82;237.42;211.22;183.02;150.22;103.22;75.22;59.62;55.62;46.58;33.2;57.94;65.52;101.34;114.54;128.74;141.74;154.74;160.14;189.54;195.74;222.74;255.94;277.94;302.94;320.74;24;;20.8;50.6;57.2;65.6;36.2;70.6;84.6;92.72;108.02;120.02;153.82;171.12;95.32;105.54;164.34;180.22;192.22;202.12;213.08;230.24;252.24;270.92;202.22;247.22;371.22;379.32;478.62</v>
       </c>
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>505.22</v>
@@ -9924,12 +9725,12 @@
       </c>
       <c r="BT42" t="str">
         <f t="shared" si="0"/>
-        <v>sursee;505.22;494.62;489.42;453.82;443.82;418.22;404.02;386.02;382.82;367.42;348.62;332.22;283.62;258.22;232.02;203.82;171.02;124.02;96.02;80.42;76.42;67.38;54;78.74;86.32;122.14;135.34;149.54;162.54;175.54;180.94;210.34;216.54;243.54;276.74;298.74;323.74;341.54;44.8;20.8;;29.8;36.4;44.8;57;91.4;105.4;113.52;128.82;140.82;174.62;191.92;116.12;126.34;185.14;201.02;213.02;222.92;233.88;251.04;273.04;291.72;223.02;268.02;392.02;400.12;499.42;505.22;494.62;489.42;453.82;443.82;418.22;404.02;386.02;382.82;367.42;348.62;332.22;283.62;258.22;232.02;203.82;171.02;124.02;96.02;80.42;76.42;67.38;54;78.74;86.32;122.14;135.34;149.54;162.54;175.54;180.94;210.34;216.54;243.54;276.74;298.74;323.74;341.54;44.8;20.8;;29.8;36.4;44.8;57;91.4;105.4;113.52;128.82;140.82;174.62;191.92;116.12;126.34;185.14;201.02;213.02;222.92;233.88;251.04;273.04;291.72;223.02;268.02;392.02;400.12;499.42</v>
+        <v>sursee;505.22;494.62;489.42;453.82;443.82;418.22;404.02;386.02;382.82;367.42;348.62;332.22;283.62;258.22;232.02;203.82;171.02;124.02;96.02;80.42;76.42;67.38;54;78.74;86.32;122.14;135.34;149.54;162.54;175.54;180.94;210.34;216.54;243.54;276.74;298.74;323.74;341.54;44.8;20.8;;29.8;36.4;44.8;57;91.4;105.4;113.52;128.82;140.82;174.62;191.92;116.12;126.34;185.14;201.02;213.02;222.92;233.88;251.04;273.04;291.72;223.02;268.02;392.02;400.12;499.42</v>
       </c>
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>535.02</v>
@@ -10131,12 +9932,12 @@
       </c>
       <c r="BT43" t="str">
         <f t="shared" si="0"/>
-        <v>rothenburg;535.02;524.42;519.22;483.62;473.62;448.02;433.82;415.82;412.62;397.22;378.42;362.02;313.42;288.02;261.82;233.62;200.82;153.82;125.82;110.22;106.22;97.18;83.8;108.54;116.12;151.94;165.14;179.34;192.34;205.34;210.74;240.14;246.34;273.34;306.54;328.54;353.54;371.34;74.6;50.6;29.8;;6.6;15;86.8;121.2;135.2;143.32;158.62;170.62;204.42;221.72;145.92;156.14;214.94;230.82;242.82;252.72;263.68;280.84;302.84;321.52;252.82;297.82;421.82;429.92;529.22;535.02;524.42;519.22;483.62;473.62;448.02;433.82;415.82;412.62;397.22;378.42;362.02;313.42;288.02;261.82;233.62;200.82;153.82;125.82;110.22;106.22;97.18;83.8;108.54;116.12;151.94;165.14;179.34;192.34;205.34;210.74;240.14;246.34;273.34;306.54;328.54;353.54;371.34;74.6;50.6;29.8;;6.6;15;86.8;121.2;135.2;143.32;158.62;170.62;204.42;221.72;145.92;156.14;214.94;230.82;242.82;252.72;263.68;280.84;302.84;321.52;252.82;297.82;421.82;429.92;529.22</v>
+        <v>rothenburg;535.02;524.42;519.22;483.62;473.62;448.02;433.82;415.82;412.62;397.22;378.42;362.02;313.42;288.02;261.82;233.62;200.82;153.82;125.82;110.22;106.22;97.18;83.8;108.54;116.12;151.94;165.14;179.34;192.34;205.34;210.74;240.14;246.34;273.34;306.54;328.54;353.54;371.34;74.6;50.6;29.8;;6.6;15;86.8;121.2;135.2;143.32;158.62;170.62;204.42;221.72;145.92;156.14;214.94;230.82;242.82;252.72;263.68;280.84;302.84;321.52;252.82;297.82;421.82;429.92;529.22</v>
       </c>
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>541.62</v>
@@ -10338,12 +10139,12 @@
       </c>
       <c r="BT44" t="str">
         <f t="shared" si="0"/>
-        <v>emmenbrücke;541.62;531.02;525.82;490.22;480.22;454.62;440.42;422.42;419.22;403.82;385.02;368.62;320.02;294.62;268.42;240.22;207.42;160.42;132.42;116.82;112.82;103.78;90.4;115.14;122.72;158.54;171.74;185.94;198.94;211.94;217.34;246.74;252.94;279.94;313.14;335.14;360.14;377.94;81.2;57.2;36.4;6.6;;8.4;93.4;127.8;141.8;149.92;165.22;177.22;211.02;228.32;152.52;162.74;221.54;237.42;249.42;259.32;270.28;287.44;309.44;328.12;259.42;304.42;428.42;436.52;535.82;541.62;531.02;525.82;490.22;480.22;454.62;440.42;422.42;419.22;403.82;385.02;368.62;320.02;294.62;268.42;240.22;207.42;160.42;132.42;116.82;112.82;103.78;90.4;115.14;122.72;158.54;171.74;185.94;198.94;211.94;217.34;246.74;252.94;279.94;313.14;335.14;360.14;377.94;81.2;57.2;36.4;6.6;;8.4;93.4;127.8;141.8;149.92;165.22;177.22;211.02;228.32;152.52;162.74;221.54;237.42;249.42;259.32;270.28;287.44;309.44;328.12;259.42;304.42;428.42;436.52;535.82</v>
+        <v>emmenbrucke;541.62;531.02;525.82;490.22;480.22;454.62;440.42;422.42;419.22;403.82;385.02;368.62;320.02;294.62;268.42;240.22;207.42;160.42;132.42;116.82;112.82;103.78;90.4;115.14;122.72;158.54;171.74;185.94;198.94;211.94;217.34;246.74;252.94;279.94;313.14;335.14;360.14;377.94;81.2;57.2;36.4;6.6;;8.4;93.4;127.8;141.8;149.92;165.22;177.22;211.02;228.32;152.52;162.74;221.54;237.42;249.42;259.32;270.28;287.44;309.44;328.12;259.42;304.42;428.42;436.52;535.82</v>
       </c>
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>550.02</v>
@@ -10545,12 +10346,12 @@
       </c>
       <c r="BT45" t="str">
         <f t="shared" si="0"/>
-        <v>luzern allmend;550.02;539.42;534.22;498.62;488.62;463.02;448.82;430.82;427.62;412.22;393.42;377.02;328.42;303.02;276.82;248.62;215.82;168.82;140.82;125.22;121.22;112.18;98.8;123.54;131.12;166.94;180.14;194.34;207.34;220.34;225.74;255.14;261.34;288.34;321.54;343.54;368.54;386.34;89.6;65.6;44.8;15;8.4;;101.8;136.2;150.2;158.32;173.62;185.62;219.42;236.72;160.92;171.14;229.94;245.82;257.82;267.72;278.68;295.84;317.84;336.52;267.82;312.82;436.82;444.92;544.22;550.02;539.42;534.22;498.62;488.62;463.02;448.82;430.82;427.62;412.22;393.42;377.02;328.42;303.02;276.82;248.62;215.82;168.82;140.82;125.22;121.22;112.18;98.8;123.54;131.12;166.94;180.14;194.34;207.34;220.34;225.74;255.14;261.34;288.34;321.54;343.54;368.54;386.34;89.6;65.6;44.8;15;8.4;;101.8;136.2;150.2;158.32;173.62;185.62;219.42;236.72;160.92;171.14;229.94;245.82;257.82;267.72;278.68;295.84;317.84;336.52;267.82;312.82;436.82;444.92;544.22</v>
+        <v>luzern allmend;550.02;539.42;534.22;498.62;488.62;463.02;448.82;430.82;427.62;412.22;393.42;377.02;328.42;303.02;276.82;248.62;215.82;168.82;140.82;125.22;121.22;112.18;98.8;123.54;131.12;166.94;180.14;194.34;207.34;220.34;225.74;255.14;261.34;288.34;321.54;343.54;368.54;386.34;89.6;65.6;44.8;15;8.4;;101.8;136.2;150.2;158.32;173.62;185.62;219.42;236.72;160.92;171.14;229.94;245.82;257.82;267.72;278.68;295.84;317.84;336.52;267.82;312.82;436.82;444.92;544.22</v>
       </c>
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>454.22</v>
@@ -10752,12 +10553,12 @@
       </c>
       <c r="BT46" t="str">
         <f t="shared" si="0"/>
-        <v>dulliken;454.22;443.62;438.42;402.82;392.82;367.22;353.02;335.02;331.82;316.42;297.62;281.22;232.62;207.22;181.02;152.82;120.02;73.02;45.02;29.42;25.42;16.38;3;27.74;35.32;71.14;84.34;98.54;111.54;124.54;129.94;159.34;165.54;192.54;225.74;247.74;272.74;290.54;12.2;36.2;57;86.8;93.4;101.8;;34.4;48.4;56.52;71.82;83.82;123.62;140.92;59.12;75.34;134.14;150.02;162.02;171.92;182.88;200.04;222.04;240.72;172.02;217.02;341.02;349.12;448.42;454.22;443.62;438.42;402.82;392.82;367.22;353.02;335.02;331.82;316.42;297.62;281.22;232.62;207.22;181.02;152.82;120.02;73.02;45.02;29.42;25.42;16.38;3;27.74;35.32;71.14;84.34;98.54;111.54;124.54;129.94;159.34;165.54;192.54;225.74;247.74;272.74;290.54;12.2;36.2;57;86.8;93.4;101.8;;34.4;48.4;56.52;71.82;83.82;123.62;140.92;59.12;75.34;134.14;150.02;162.02;171.92;182.88;200.04;222.04;240.72;172.02;217.02;341.02;349.12;448.42</v>
+        <v>dulliken;454.22;443.62;438.42;402.82;392.82;367.22;353.02;335.02;331.82;316.42;297.62;281.22;232.62;207.22;181.02;152.82;120.02;73.02;45.02;29.42;25.42;16.38;3;27.74;35.32;71.14;84.34;98.54;111.54;124.54;129.94;159.34;165.54;192.54;225.74;247.74;272.74;290.54;12.2;36.2;57;86.8;93.4;101.8;;34.4;48.4;56.52;71.82;83.82;123.62;140.92;59.12;75.34;134.14;150.02;162.02;171.92;182.88;200.04;222.04;240.72;172.02;217.02;341.02;349.12;448.42</v>
       </c>
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>488.61999999999989</v>
@@ -10959,12 +10760,12 @@
       </c>
       <c r="BT47" t="str">
         <f t="shared" si="0"/>
-        <v>sissach;488.62;478.02;472.82;437.22;427.22;401.62;387.42;369.42;366.22;350.82;332.02;315.62;267.02;241.62;215.42;187.22;154.42;107.42;79.42;63.82;59.82;50.78;37.4;62.14;69.72;105.54;118.74;132.94;145.94;158.94;164.34;193.74;199.94;226.94;260.14;282.14;307.14;324.94;46.6;70.6;91.4;121.2;127.8;136.2;34.4;;14;22.12;37.42;49.42;158.02;175.32;24.72;109.74;168.54;184.42;196.42;206.32;217.28;234.44;256.44;275.12;206.42;251.42;375.42;383.52;482.82;488.62;478.02;472.82;437.22;427.22;401.62;387.42;369.42;366.22;350.82;332.02;315.62;267.02;241.62;215.42;187.22;154.42;107.42;79.42;63.82;59.82;50.78;37.4;62.14;69.72;105.54;118.74;132.94;145.94;158.94;164.34;193.74;199.94;226.94;260.14;282.14;307.14;324.94;46.6;70.6;91.4;121.2;127.8;136.2;34.4;;14;22.12;37.42;49.42;158.02;175.32;24.72;109.74;168.54;184.42;196.42;206.32;217.28;234.44;256.44;275.12;206.42;251.42;375.42;383.52;482.82</v>
+        <v>sissach;488.62;478.02;472.82;437.22;427.22;401.62;387.42;369.42;366.22;350.82;332.02;315.62;267.02;241.62;215.42;187.22;154.42;107.42;79.42;63.82;59.82;50.78;37.4;62.14;69.72;105.54;118.74;132.94;145.94;158.94;164.34;193.74;199.94;226.94;260.14;282.14;307.14;324.94;46.6;70.6;91.4;121.2;127.8;136.2;34.4;;14;22.12;37.42;49.42;158.02;175.32;24.72;109.74;168.54;184.42;196.42;206.32;217.28;234.44;256.44;275.12;206.42;251.42;375.42;383.52;482.82</v>
       </c>
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>502.61999999999989</v>
@@ -11166,12 +10967,12 @@
       </c>
       <c r="BT48" t="str">
         <f t="shared" si="0"/>
-        <v>liestal;502.62;492.02;486.82;451.22;441.22;415.62;401.42;383.42;380.22;364.82;346.02;329.62;281.02;255.62;229.42;201.22;168.42;121.42;93.42;77.82;73.82;64.78;51.4;76.14;83.72;119.54;132.74;146.94;159.94;172.94;178.34;207.74;213.94;240.94;274.14;296.14;321.14;338.94;60.6;84.6;105.4;135.2;141.8;150.2;48.4;14;;8.12;23.42;35.42;172.02;189.32;10.72;123.74;182.54;198.42;210.42;220.32;231.28;248.44;270.44;289.12;220.42;265.42;389.42;397.52;496.82;502.62;492.02;486.82;451.22;441.22;415.62;401.42;383.42;380.22;364.82;346.02;329.62;281.02;255.62;229.42;201.22;168.42;121.42;93.42;77.82;73.82;64.78;51.4;76.14;83.72;119.54;132.74;146.94;159.94;172.94;178.34;207.74;213.94;240.94;274.14;296.14;321.14;338.94;60.6;84.6;105.4;135.2;141.8;150.2;48.4;14;;8.12;23.42;35.42;172.02;189.32;10.72;123.74;182.54;198.42;210.42;220.32;231.28;248.44;270.44;289.12;220.42;265.42;389.42;397.52;496.82</v>
+        <v>liestal;502.62;492.02;486.82;451.22;441.22;415.62;401.42;383.42;380.22;364.82;346.02;329.62;281.02;255.62;229.42;201.22;168.42;121.42;93.42;77.82;73.82;64.78;51.4;76.14;83.72;119.54;132.74;146.94;159.94;172.94;178.34;207.74;213.94;240.94;274.14;296.14;321.14;338.94;60.6;84.6;105.4;135.2;141.8;150.2;48.4;14;;8.12;23.42;35.42;172.02;189.32;10.72;123.74;182.54;198.42;210.42;220.32;231.28;248.44;270.44;289.12;220.42;265.42;389.42;397.52;496.82</v>
       </c>
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>510.74</v>
@@ -11373,12 +11174,12 @@
       </c>
       <c r="BT49" t="str">
         <f t="shared" si="0"/>
-        <v>mayenfels;510.74;500.14;494.94;459.34;449.34;423.74;409.54;391.54;388.34;372.94;354.14;337.74;289.14;263.74;237.54;209.34;176.54;129.54;101.54;85.94;81.94;72.9;59.52;84.26;91.84;127.66;140.86;155.06;168.06;181.06;186.46;215.86;222.06;249.06;282.26;304.26;329.26;347.06;68.72;92.72;113.52;143.32;149.92;158.32;56.52;22.12;8.12;;15.3;27.3;180.14;197.44;2.6;131.86;190.66;206.54;218.54;228.44;239.4;256.56;278.56;297.24;228.54;273.54;397.54;405.64;504.94;510.74;500.14;494.94;459.34;449.34;423.74;409.54;391.54;388.34;372.94;354.14;337.74;289.14;263.74;237.54;209.34;176.54;129.54;101.54;85.94;81.94;72.9;59.52;84.26;91.84;127.66;140.86;155.06;168.06;181.06;186.46;215.86;222.06;249.06;282.26;304.26;329.26;347.06;68.72;92.72;113.52;143.32;149.92;158.32;56.52;22.12;8.12;;15.3;27.3;180.14;197.44;2.6;131.86;190.66;206.54;218.54;228.44;239.4;256.56;278.56;297.24;228.54;273.54;397.54;405.64;504.94</v>
+        <v>mayenfels;510.74;500.14;494.94;459.34;449.34;423.74;409.54;391.54;388.34;372.94;354.14;337.74;289.14;263.74;237.54;209.34;176.54;129.54;101.54;85.94;81.94;72.9;59.52;84.26;91.84;127.66;140.86;155.06;168.06;181.06;186.46;215.86;222.06;249.06;282.26;304.26;329.26;347.06;68.72;92.72;113.52;143.32;149.92;158.32;56.52;22.12;8.12;;15.3;27.3;180.14;197.44;2.6;131.86;190.66;206.54;218.54;228.44;239.4;256.56;278.56;297.24;228.54;273.54;397.54;405.64;504.94</v>
       </c>
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>526.04</v>
@@ -11580,12 +11381,12 @@
       </c>
       <c r="BT50" t="str">
         <f t="shared" si="0"/>
-        <v>basel wolf;526.04;515.44;510.24;474.64;464.64;439.04;424.84;406.84;403.64;388.24;369.44;353.04;304.44;279.04;252.84;224.64;191.84;144.84;116.84;101.24;97.24;88.2;74.82;99.56;107.14;142.96;156.16;170.36;183.36;196.36;201.76;231.16;237.36;264.36;297.56;319.56;344.56;362.36;84.02;108.02;128.82;158.62;165.22;173.62;71.82;37.42;23.42;15.3;;12;195.44;212.74;17.9;147.16;205.96;221.84;233.84;243.74;254.7;271.86;293.86;312.54;243.84;288.84;412.84;420.94;520.24;526.04;515.44;510.24;474.64;464.64;439.04;424.84;406.84;403.64;388.24;369.44;353.04;304.44;279.04;252.84;224.64;191.84;144.84;116.84;101.24;97.24;88.2;74.82;99.56;107.14;142.96;156.16;170.36;183.36;196.36;201.76;231.16;237.36;264.36;297.56;319.56;344.56;362.36;84.02;108.02;128.82;158.62;165.22;173.62;71.82;37.42;23.42;15.3;;12;195.44;212.74;17.9;147.16;205.96;221.84;233.84;243.74;254.7;271.86;293.86;312.54;243.84;288.84;412.84;420.94;520.24</v>
+        <v>basel wolf;526.04;515.44;510.24;474.64;464.64;439.04;424.84;406.84;403.64;388.24;369.44;353.04;304.44;279.04;252.84;224.64;191.84;144.84;116.84;101.24;97.24;88.2;74.82;99.56;107.14;142.96;156.16;170.36;183.36;196.36;201.76;231.16;237.36;264.36;297.56;319.56;344.56;362.36;84.02;108.02;128.82;158.62;165.22;173.62;71.82;37.42;23.42;15.3;;12;195.44;212.74;17.9;147.16;205.96;221.84;233.84;243.74;254.7;271.86;293.86;312.54;243.84;288.84;412.84;420.94;520.24</v>
       </c>
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>538.04</v>
@@ -11787,12 +11588,12 @@
       </c>
       <c r="BT51" t="str">
         <f t="shared" si="0"/>
-        <v>basel gateway nord;538.04;527.44;522.24;486.64;476.64;451.04;436.84;418.84;415.64;400.24;381.44;365.04;316.44;291.04;264.84;236.64;203.84;156.84;128.84;113.24;109.24;100.2;86.82;111.56;119.14;154.96;168.16;182.36;195.36;208.36;213.76;243.16;249.36;276.36;309.56;331.56;356.56;374.36;96.02;120.02;140.82;170.62;177.22;185.62;83.82;49.42;35.42;27.3;12;;207.44;224.74;29.9;159.16;217.96;233.84;245.84;255.74;266.7;283.86;305.86;324.54;255.84;300.84;424.84;432.94;532.24;538.04;527.44;522.24;486.64;476.64;451.04;436.84;418.84;415.64;400.24;381.44;365.04;316.44;291.04;264.84;236.64;203.84;156.84;128.84;113.24;109.24;100.2;86.82;111.56;119.14;154.96;168.16;182.36;195.36;208.36;213.76;243.16;249.36;276.36;309.56;331.56;356.56;374.36;96.02;120.02;140.82;170.62;177.22;185.62;83.82;49.42;35.42;27.3;12;;207.44;224.74;29.9;159.16;217.96;233.84;245.84;255.74;266.7;283.86;305.86;324.54;255.84;300.84;424.84;432.94;532.24</v>
+        <v>basel gateway nord;538.04;527.44;522.24;486.64;476.64;451.04;436.84;418.84;415.64;400.24;381.44;365.04;316.44;291.04;264.84;236.64;203.84;156.84;128.84;113.24;109.24;100.2;86.82;111.56;119.14;154.96;168.16;182.36;195.36;208.36;213.76;243.16;249.36;276.36;309.56;331.56;356.56;374.36;96.02;120.02;140.82;170.62;177.22;185.62;83.82;49.42;35.42;27.3;12;;207.44;224.74;29.9;159.16;217.96;233.84;245.84;255.74;266.7;283.86;305.86;324.54;255.84;300.84;424.84;432.94;532.24</v>
       </c>
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>337.8</v>
@@ -11994,12 +11795,12 @@
       </c>
       <c r="BT52" t="str">
         <f t="shared" si="0"/>
-        <v>lyss;337.8;327.2;322;286.4;276.4;250.8;236.6;218.6;215.4;200;181.2;164.8;116.2;90.8;64.6;36.4;3.6;50.6;78.6;94.2;98.2;107.24;120.62;145.36;152.94;188.76;201.96;216.16;229.16;242.16;247.56;276.96;283.16;310.16;343.36;365.36;390.36;408.16;129.82;153.82;174.62;204.42;211.02;219.42;123.62;158.02;172.02;180.14;195.44;207.44;;17.3;182.74;192.96;251.76;33.6;45.6;55.5;66.46;83.62;105.62;124.3;55.6;100.6;224.6;232.7;332;337.8;327.2;322;286.4;276.4;250.8;236.6;218.6;215.4;200;181.2;164.8;116.2;90.8;64.6;36.4;3.6;50.6;78.6;94.2;98.2;107.24;120.62;145.36;152.94;188.76;201.96;216.16;229.16;242.16;247.56;276.96;283.16;310.16;343.36;365.36;390.36;408.16;129.82;153.82;174.62;204.42;211.02;219.42;123.62;158.02;172.02;180.14;195.44;207.44;;17.3;182.74;192.96;251.76;33.6;45.6;55.5;66.46;83.62;105.62;124.3;55.6;100.6;224.6;232.7;332</v>
+        <v>lyss;337.8;327.2;322;286.4;276.4;250.8;236.6;218.6;215.4;200;181.2;164.8;116.2;90.8;64.6;36.4;3.6;50.6;78.6;94.2;98.2;107.24;120.62;145.36;152.94;188.76;201.96;216.16;229.16;242.16;247.56;276.96;283.16;310.16;343.36;365.36;390.36;408.16;129.82;153.82;174.62;204.42;211.02;219.42;123.62;158.02;172.02;180.14;195.44;207.44;;17.3;182.74;192.96;251.76;33.6;45.6;55.5;66.46;83.62;105.62;124.3;55.6;100.6;224.6;232.7;332</v>
       </c>
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>355.1</v>
@@ -12201,12 +12002,12 @@
       </c>
       <c r="BT53" t="str">
         <f t="shared" si="0"/>
-        <v>biel/bienne;355.1;344.5;339.3;303.7;293.7;268.1;253.9;235.9;232.7;217.3;198.5;182.1;133.5;108.1;81.9;53.7;20.9;67.9;95.9;111.5;115.5;124.54;137.92;162.66;170.24;206.06;219.26;233.46;246.46;259.46;264.86;294.26;300.46;327.46;360.66;382.66;407.66;425.46;147.12;171.12;191.92;221.72;228.32;236.72;140.92;175.32;189.32;197.44;212.74;224.74;17.3;;200.04;210.26;269.06;50.9;62.9;72.8;83.76;100.92;122.92;141.6;72.9;117.9;241.9;250;349.3;355.1;344.5;339.3;303.7;293.7;268.1;253.9;235.9;232.7;217.3;198.5;182.1;133.5;108.1;81.9;53.7;20.9;67.9;95.9;111.5;115.5;124.54;137.92;162.66;170.24;206.06;219.26;233.46;246.46;259.46;264.86;294.26;300.46;327.46;360.66;382.66;407.66;425.46;147.12;171.12;191.92;221.72;228.32;236.72;140.92;175.32;189.32;197.44;212.74;224.74;17.3;;200.04;210.26;269.06;50.9;62.9;72.8;83.76;100.92;122.92;141.6;72.9;117.9;241.9;250;349.3</v>
+        <v>biel/bienne;355.1;344.5;339.3;303.7;293.7;268.1;253.9;235.9;232.7;217.3;198.5;182.1;133.5;108.1;81.9;53.7;20.9;67.9;95.9;111.5;115.5;124.54;137.92;162.66;170.24;206.06;219.26;233.46;246.46;259.46;264.86;294.26;300.46;327.46;360.66;382.66;407.66;425.46;147.12;171.12;191.92;221.72;228.32;236.72;140.92;175.32;189.32;197.44;212.74;224.74;17.3;;200.04;210.26;269.06;50.9;62.9;72.8;83.76;100.92;122.92;141.6;72.9;117.9;241.9;250;349.3</v>
       </c>
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>513.33999999999992</v>
@@ -12408,12 +12209,12 @@
       </c>
       <c r="BT54" t="str">
         <f t="shared" si="0"/>
-        <v>pratteln west;513.34;502.74;497.54;461.94;451.94;426.34;412.14;394.14;390.94;375.54;356.74;340.34;291.74;266.34;240.14;211.94;179.14;132.14;104.14;88.54;84.54;75.5;62.12;86.86;94.44;130.26;143.46;157.66;170.66;183.66;189.06;218.46;224.66;251.66;284.86;306.86;331.86;349.66;71.32;95.32;116.12;145.92;152.52;160.92;59.12;24.72;10.72;2.6;17.9;29.9;182.74;200.04;;134.46;193.26;209.14;221.14;231.04;242;259.16;281.16;299.84;231.14;276.14;400.14;408.24;507.54;513.34;502.74;497.54;461.94;451.94;426.34;412.14;394.14;390.94;375.54;356.74;340.34;291.74;266.34;240.14;211.94;179.14;132.14;104.14;88.54;84.54;75.5;62.12;86.86;94.44;130.26;143.46;157.66;170.66;183.66;189.06;218.46;224.66;251.66;284.86;306.86;331.86;349.66;71.32;95.32;116.12;145.92;152.52;160.92;59.12;24.72;10.72;2.6;17.9;29.9;182.74;200.04;;134.46;193.26;209.14;221.14;231.04;242;259.16;281.16;299.84;231.14;276.14;400.14;408.24;507.54</v>
+        <v>pratteln west;513.34;502.74;497.54;461.94;451.94;426.34;412.14;394.14;390.94;375.54;356.74;340.34;291.74;266.34;240.14;211.94;179.14;132.14;104.14;88.54;84.54;75.5;62.12;86.86;94.44;130.26;143.46;157.66;170.66;183.66;189.06;218.46;224.66;251.66;284.86;306.86;331.86;349.66;71.32;95.32;116.12;145.92;152.52;160.92;59.12;24.72;10.72;2.6;17.9;29.9;182.74;200.04;;134.46;193.26;209.14;221.14;231.04;242;259.16;281.16;299.84;231.14;276.14;400.14;408.24;507.54</v>
       </c>
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>523.55999999999995</v>
@@ -12615,12 +12416,12 @@
       </c>
       <c r="BT55" t="str">
         <f t="shared" si="0"/>
-        <v>limmatstadt;523.56;512.96;507.76;472.16;462.16;436.56;422.36;404.36;401.16;385.76;366.96;350.56;301.96;276.56;250.36;222.16;189.36;142.36;114.36;98.76;94.76;85.72;72.34;47.6;40.02;4.2;17.4;31.6;44.6;57.6;63;92.4;98.6;125.6;158.8;180.8;205.8;223.6;81.54;105.54;126.34;156.14;162.74;171.14;75.34;109.74;123.74;131.86;147.16;159.16;192.96;210.26;134.46;;67.2;219.36;231.36;241.26;252.22;269.38;291.38;310.06;241.36;286.36;410.36;418.46;517.76;523.56;512.96;507.76;472.16;462.16;436.56;422.36;404.36;401.16;385.76;366.96;350.56;301.96;276.56;250.36;222.16;189.36;142.36;114.36;98.76;94.76;85.72;72.34;47.6;40.02;4.2;17.4;31.6;44.6;57.6;63;92.4;98.6;125.6;158.8;180.8;205.8;223.6;81.54;105.54;126.34;156.14;162.74;171.14;75.34;109.74;123.74;131.86;147.16;159.16;192.96;210.26;134.46;;67.2;219.36;231.36;241.26;252.22;269.38;291.38;310.06;241.36;286.36;410.36;418.46;517.76</v>
+        <v>limmatstadt;523.56;512.96;507.76;472.16;462.16;436.56;422.36;404.36;401.16;385.76;366.96;350.56;301.96;276.56;250.36;222.16;189.36;142.36;114.36;98.76;94.76;85.72;72.34;47.6;40.02;4.2;17.4;31.6;44.6;57.6;63;92.4;98.6;125.6;158.8;180.8;205.8;223.6;81.54;105.54;126.34;156.14;162.74;171.14;75.34;109.74;123.74;131.86;147.16;159.16;192.96;210.26;134.46;;67.2;219.36;231.36;241.26;252.22;269.38;291.38;310.06;241.36;286.36;410.36;418.46;517.76</v>
       </c>
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>582.36</v>
@@ -12822,12 +12623,12 @@
       </c>
       <c r="BT56" t="str">
         <f t="shared" si="0"/>
-        <v>wangen-dübendorf;582.36;571.76;566.56;530.96;520.96;495.36;481.16;463.16;459.96;444.56;425.76;409.36;360.76;335.36;309.16;280.96;248.16;201.16;173.16;157.56;153.56;144.52;131.14;106.4;98.82;63;49.8;35.6;22.6;9.6;4.2;33.6;39.8;66.8;100;122;147;164.8;140.34;164.34;185.14;214.94;221.54;229.94;134.14;168.54;182.54;190.66;205.96;217.96;251.76;269.06;193.26;67.2;;278.16;290.16;300.06;311.02;328.18;350.18;368.86;300.16;345.16;469.16;477.26;576.56;582.36;571.76;566.56;530.96;520.96;495.36;481.16;463.16;459.96;444.56;425.76;409.36;360.76;335.36;309.16;280.96;248.16;201.16;173.16;157.56;153.56;144.52;131.14;106.4;98.82;63;49.8;35.6;22.6;9.6;4.2;33.6;39.8;66.8;100;122;147;164.8;140.34;164.34;185.14;214.94;221.54;229.94;134.14;168.54;182.54;190.66;205.96;217.96;251.76;269.06;193.26;67.2;;278.16;290.16;300.06;311.02;328.18;350.18;368.86;300.16;345.16;469.16;477.26;576.56</v>
+        <v>wangen-dubendorf;582.36;571.76;566.56;530.96;520.96;495.36;481.16;463.16;459.96;444.56;425.76;409.36;360.76;335.36;309.16;280.96;248.16;201.16;173.16;157.56;153.56;144.52;131.14;106.4;98.82;63;49.8;35.6;22.6;9.6;4.2;33.6;39.8;66.8;100;122;147;164.8;140.34;164.34;185.14;214.94;221.54;229.94;134.14;168.54;182.54;190.66;205.96;217.96;251.76;269.06;193.26;67.2;;278.16;290.16;300.06;311.02;328.18;350.18;368.86;300.16;345.16;469.16;477.26;576.56</v>
       </c>
     </row>
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>364.2</v>
@@ -13029,12 +12830,12 @@
       </c>
       <c r="BT57" t="str">
         <f t="shared" si="0"/>
-        <v>schönbühl;364.2;353.6;348.4;312.8;302.8;277.2;263;245;241.8;226.4;207.6;191.2;142.6;117.2;91;62.8;30;77;105;120.6;124.6;133.64;147.02;171.76;179.34;215.16;228.36;242.56;255.56;268.56;273.96;303.36;309.56;336.56;369.76;391.76;416.76;434.56;156.22;180.22;201.02;230.82;237.42;245.82;150.02;184.42;198.42;206.54;221.84;233.84;33.6;50.9;209.14;219.36;278.16;;12;21.9;32.86;50.02;72.02;90.7;22;127;251;259.1;358.4;364.2;353.6;348.4;312.8;302.8;277.2;263;245;241.8;226.4;207.6;191.2;142.6;117.2;91;62.8;30;77;105;120.6;124.6;133.64;147.02;171.76;179.34;215.16;228.36;242.56;255.56;268.56;273.96;303.36;309.56;336.56;369.76;391.76;416.76;434.56;156.22;180.22;201.02;230.82;237.42;245.82;150.02;184.42;198.42;206.54;221.84;233.84;33.6;50.9;209.14;219.36;278.16;;12;21.9;32.86;50.02;72.02;90.7;22;127;251;259.1;358.4</v>
+        <v>schonbuhl;364.2;353.6;348.4;312.8;302.8;277.2;263;245;241.8;226.4;207.6;191.2;142.6;117.2;91;62.8;30;77;105;120.6;124.6;133.64;147.02;171.76;179.34;215.16;228.36;242.56;255.56;268.56;273.96;303.36;309.56;336.56;369.76;391.76;416.76;434.56;156.22;180.22;201.02;230.82;237.42;245.82;150.02;184.42;198.42;206.54;221.84;233.84;33.6;50.9;209.14;219.36;278.16;;12;21.9;32.86;50.02;72.02;90.7;22;127;251;259.1;358.4</v>
       </c>
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>376.2</v>
@@ -13236,12 +13037,12 @@
       </c>
       <c r="BT58" t="str">
         <f t="shared" si="0"/>
-        <v>bern;376.2;365.6;360.4;324.8;314.8;289.2;275;257;253.8;238.4;219.6;203.2;154.6;129.2;103;74.8;42;89;117;132.6;136.6;145.64;159.02;183.76;191.34;227.16;240.36;254.56;267.56;280.56;285.96;315.36;321.56;348.56;381.76;403.76;428.76;446.56;168.22;192.22;213.02;242.82;249.42;257.82;162.02;196.42;210.42;218.54;233.84;245.84;45.6;62.9;221.14;231.36;290.16;12;;9.9;20.86;38.02;60.02;78.7;10;139;263;271.1;370.4;376.2;365.6;360.4;324.8;314.8;289.2;275;257;253.8;238.4;219.6;203.2;154.6;129.2;103;74.8;42;89;117;132.6;136.6;145.64;159.02;183.76;191.34;227.16;240.36;254.56;267.56;280.56;285.96;315.36;321.56;348.56;381.76;403.76;428.76;446.56;168.22;192.22;213.02;242.82;249.42;257.82;162.02;196.42;210.42;218.54;233.84;245.84;45.6;62.9;221.14;231.36;290.16;12;;9.9;20.86;38.02;60.02;78.7;10;139;263;271.1;370.4</v>
+        <v>bern;376.2;365.6;360.4;324.8;314.8;289.2;275;257;253.8;238.4;219.6;203.2;154.6;129.2;103;74.8;42;89;117;132.6;136.6;145.64;159.02;183.76;191.34;227.16;240.36;254.56;267.56;280.56;285.96;315.36;321.56;348.56;381.76;403.76;428.76;446.56;168.22;192.22;213.02;242.82;249.42;257.82;162.02;196.42;210.42;218.54;233.84;245.84;45.6;62.9;221.14;231.36;290.16;12;;9.9;20.86;38.02;60.02;78.7;10;139;263;271.1;370.4</v>
       </c>
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="B59">
         <v>386.1</v>
@@ -13443,12 +13244,12 @@
       </c>
       <c r="BT59" t="str">
         <f t="shared" si="0"/>
-        <v>bern wankdorf;386.1;375.5;370.3;334.7;324.7;299.1;284.9;266.9;263.7;248.3;229.5;213.1;164.5;139.1;112.9;84.7;51.9;98.9;126.9;142.5;146.5;155.54;168.92;193.66;201.24;237.06;250.26;264.46;277.46;290.46;295.86;325.26;331.46;358.46;391.66;413.66;438.66;456.46;178.12;202.12;222.92;252.72;259.32;267.72;171.92;206.32;220.32;228.44;243.74;255.74;55.5;72.8;231.04;241.26;300.06;21.9;9.9;;10.96;28.12;50.12;68.8;19.9;148.9;272.9;281;380.3;386.1;375.5;370.3;334.7;324.7;299.1;284.9;266.9;263.7;248.3;229.5;213.1;164.5;139.1;112.9;84.7;51.9;98.9;126.9;142.5;146.5;155.54;168.92;193.66;201.24;237.06;250.26;264.46;277.46;290.46;295.86;325.26;331.46;358.46;391.66;413.66;438.66;456.46;178.12;202.12;222.92;252.72;259.32;267.72;171.92;206.32;220.32;228.44;243.74;255.74;55.5;72.8;231.04;241.26;300.06;21.9;9.9;;10.96;28.12;50.12;68.8;19.9;148.9;272.9;281;380.3</v>
+        <v>bern wankdorf;386.1;375.5;370.3;334.7;324.7;299.1;284.9;266.9;263.7;248.3;229.5;213.1;164.5;139.1;112.9;84.7;51.9;98.9;126.9;142.5;146.5;155.54;168.92;193.66;201.24;237.06;250.26;264.46;277.46;290.46;295.86;325.26;331.46;358.46;391.66;413.66;438.66;456.46;178.12;202.12;222.92;252.72;259.32;267.72;171.92;206.32;220.32;228.44;243.74;255.74;55.5;72.8;231.04;241.26;300.06;21.9;9.9;;10.96;28.12;50.12;68.8;19.9;148.9;272.9;281;380.3</v>
       </c>
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>397.06</v>
@@ -13650,12 +13451,12 @@
       </c>
       <c r="BT60" t="str">
         <f t="shared" si="0"/>
-        <v>muri-gümligen;397.06;386.46;381.26;345.66;335.66;310.06;295.86;277.86;274.66;259.26;240.46;224.06;175.46;150.06;123.86;95.66;62.86;109.86;137.86;153.46;157.46;166.5;179.88;204.62;212.2;248.02;261.22;275.42;288.42;301.42;306.82;336.22;342.42;369.42;402.62;424.62;449.62;467.42;189.08;213.08;233.88;263.68;270.28;278.68;182.88;217.28;231.28;239.4;254.7;266.7;66.46;83.76;242;252.22;311.02;32.86;20.86;10.96;;17.16;39.16;57.84;30.86;159.86;283.86;291.96;391.26;397.06;386.46;381.26;345.66;335.66;310.06;295.86;277.86;274.66;259.26;240.46;224.06;175.46;150.06;123.86;95.66;62.86;109.86;137.86;153.46;157.46;166.5;179.88;204.62;212.2;248.02;261.22;275.42;288.42;301.42;306.82;336.22;342.42;369.42;402.62;424.62;449.62;467.42;189.08;213.08;233.88;263.68;270.28;278.68;182.88;217.28;231.28;239.4;254.7;266.7;66.46;83.76;242;252.22;311.02;32.86;20.86;10.96;;17.16;39.16;57.84;30.86;159.86;283.86;291.96;391.26</v>
+        <v>muri-gumligen;397.06;386.46;381.26;345.66;335.66;310.06;295.86;277.86;274.66;259.26;240.46;224.06;175.46;150.06;123.86;95.66;62.86;109.86;137.86;153.46;157.46;166.5;179.88;204.62;212.2;248.02;261.22;275.42;288.42;301.42;306.82;336.22;342.42;369.42;402.62;424.62;449.62;467.42;189.08;213.08;233.88;263.68;270.28;278.68;182.88;217.28;231.28;239.4;254.7;266.7;66.46;83.76;242;252.22;311.02;32.86;20.86;10.96;;17.16;39.16;57.84;30.86;159.86;283.86;291.96;391.26</v>
       </c>
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>414.22</v>
@@ -13857,12 +13658,12 @@
       </c>
       <c r="BT61" t="str">
         <f t="shared" si="0"/>
-        <v>münsingen;414.22;403.62;398.42;362.82;352.82;327.22;313.02;295.02;291.82;276.42;257.62;241.22;192.62;167.22;141.02;112.82;80.02;127.02;155.02;170.62;174.62;183.66;197.04;221.78;229.36;265.18;278.38;292.58;305.58;318.58;323.98;353.38;359.58;386.58;419.78;441.78;466.78;484.58;206.24;230.24;251.04;280.84;287.44;295.84;200.04;234.44;248.44;256.56;271.86;283.86;83.62;100.92;259.16;269.38;328.18;50.02;38.02;28.12;17.16;;22;40.68;48.02;177.02;301.02;309.12;408.42;414.22;403.62;398.42;362.82;352.82;327.22;313.02;295.02;291.82;276.42;257.62;241.22;192.62;167.22;141.02;112.82;80.02;127.02;155.02;170.62;174.62;183.66;197.04;221.78;229.36;265.18;278.38;292.58;305.58;318.58;323.98;353.38;359.58;386.58;419.78;441.78;466.78;484.58;206.24;230.24;251.04;280.84;287.44;295.84;200.04;234.44;248.44;256.56;271.86;283.86;83.62;100.92;259.16;269.38;328.18;50.02;38.02;28.12;17.16;;22;40.68;48.02;177.02;301.02;309.12;408.42</v>
+        <v>munsingen;414.22;403.62;398.42;362.82;352.82;327.22;313.02;295.02;291.82;276.42;257.62;241.22;192.62;167.22;141.02;112.82;80.02;127.02;155.02;170.62;174.62;183.66;197.04;221.78;229.36;265.18;278.38;292.58;305.58;318.58;323.98;353.38;359.58;386.58;419.78;441.78;466.78;484.58;206.24;230.24;251.04;280.84;287.44;295.84;200.04;234.44;248.44;256.56;271.86;283.86;83.62;100.92;259.16;269.38;328.18;50.02;38.02;28.12;17.16;;22;40.68;48.02;177.02;301.02;309.12;408.42</v>
       </c>
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>436.22</v>
@@ -14064,12 +13865,12 @@
       </c>
       <c r="BT62" t="str">
         <f t="shared" si="0"/>
-        <v>heimberg-steffisburg;436.22;425.62;420.42;384.82;374.82;349.22;335.02;317.02;313.82;298.42;279.62;263.22;214.62;189.22;163.02;134.82;102.02;149.02;177.02;192.62;196.62;205.66;219.04;243.78;251.36;287.18;300.38;314.58;327.58;340.58;345.98;375.38;381.58;408.58;441.78;463.78;488.78;506.58;228.24;252.24;273.04;302.84;309.44;317.84;222.04;256.44;270.44;278.56;293.86;305.86;105.62;122.92;281.16;291.38;350.18;72.02;60.02;50.12;39.16;22;;18.68;70.02;199.02;323.02;331.12;430.42;436.22;425.62;420.42;384.82;374.82;349.22;335.02;317.02;313.82;298.42;279.62;263.22;214.62;189.22;163.02;134.82;102.02;149.02;177.02;192.62;196.62;205.66;219.04;243.78;251.36;287.18;300.38;314.58;327.58;340.58;345.98;375.38;381.58;408.58;441.78;463.78;488.78;506.58;228.24;252.24;273.04;302.84;309.44;317.84;222.04;256.44;270.44;278.56;293.86;305.86;105.62;122.92;281.16;291.38;350.18;72.02;60.02;50.12;39.16;22;;18.68;70.02;199.02;323.02;331.12;430.42</v>
+        <v>heimberg-steffisburg;436.22;425.62;420.42;384.82;374.82;349.22;335.02;317.02;313.82;298.42;279.62;263.22;214.62;189.22;163.02;134.82;102.02;149.02;177.02;192.62;196.62;205.66;219.04;243.78;251.36;287.18;300.38;314.58;327.58;340.58;345.98;375.38;381.58;408.58;441.78;463.78;488.78;506.58;228.24;252.24;273.04;302.84;309.44;317.84;222.04;256.44;270.44;278.56;293.86;305.86;105.62;122.92;281.16;291.38;350.18;72.02;60.02;50.12;39.16;22;;18.68;70.02;199.02;323.02;331.12;430.42</v>
       </c>
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B63">
         <v>454.89999999999992</v>
@@ -14271,12 +14072,12 @@
       </c>
       <c r="BT63" t="str">
         <f t="shared" si="0"/>
-        <v>gwatt;454.9;444.3;439.1;403.5;393.5;367.9;353.7;335.7;332.5;317.1;298.3;281.9;233.3;207.9;181.7;153.5;120.7;167.7;195.7;211.3;215.3;224.34;237.72;262.46;270.04;305.86;319.06;333.26;346.26;359.26;364.66;394.06;400.26;427.26;460.46;482.46;507.46;525.26;246.92;270.92;291.72;321.52;328.12;336.52;240.72;275.12;289.12;297.24;312.54;324.54;124.3;141.6;299.84;310.06;368.86;90.7;78.7;68.8;57.84;40.68;18.68;;88.7;217.7;341.7;349.8;449.1;454.9;444.3;439.1;403.5;393.5;367.9;353.7;335.7;332.5;317.1;298.3;281.9;233.3;207.9;181.7;153.5;120.7;167.7;195.7;211.3;215.3;224.34;237.72;262.46;270.04;305.86;319.06;333.26;346.26;359.26;364.66;394.06;400.26;427.26;460.46;482.46;507.46;525.26;246.92;270.92;291.72;321.52;328.12;336.52;240.72;275.12;289.12;297.24;312.54;324.54;124.3;141.6;299.84;310.06;368.86;90.7;78.7;68.8;57.84;40.68;18.68;;88.7;217.7;341.7;349.8;449.1</v>
+        <v>gwatt;454.9;444.3;439.1;403.5;393.5;367.9;353.7;335.7;332.5;317.1;298.3;281.9;233.3;207.9;181.7;153.5;120.7;167.7;195.7;211.3;215.3;224.34;237.72;262.46;270.04;305.86;319.06;333.26;346.26;359.26;364.66;394.06;400.26;427.26;460.46;482.46;507.46;525.26;246.92;270.92;291.72;321.52;328.12;336.52;240.72;275.12;289.12;297.24;312.54;324.54;124.3;141.6;299.84;310.06;368.86;90.7;78.7;68.8;57.84;40.68;18.68;;88.7;217.7;341.7;349.8;449.1</v>
       </c>
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>386.2</v>
@@ -14478,12 +14279,12 @@
       </c>
       <c r="BT64" t="str">
         <f t="shared" si="0"/>
-        <v>bern weyermannshaus;386.2;375.6;370.4;334.8;324.8;299.2;285;267;263.8;248.4;229.6;213.2;164.6;139.2;113;84.8;52;99;127;142.6;146.6;155.64;169.02;193.76;201.34;237.16;250.36;264.56;277.56;290.56;295.96;325.36;331.56;358.56;391.76;413.76;438.76;456.56;178.22;202.22;223.02;252.82;259.42;267.82;172.02;206.42;220.42;228.54;243.84;255.84;55.6;72.9;231.14;241.36;300.16;22;10;19.9;30.86;48.02;70.02;88.7;;149;273;281.1;380.4;386.2;375.6;370.4;334.8;324.8;299.2;285;267;263.8;248.4;229.6;213.2;164.6;139.2;113;84.8;52;99;127;142.6;146.6;155.64;169.02;193.76;201.34;237.16;250.36;264.56;277.56;290.56;295.96;325.36;331.56;358.56;391.76;413.76;438.76;456.56;178.22;202.22;223.02;252.82;259.42;267.82;172.02;206.42;220.42;228.54;243.84;255.84;55.6;72.9;231.14;241.36;300.16;22;10;19.9;30.86;48.02;70.02;88.7;;149;273;281.1;380.4</v>
+        <v>bern weyermannshaus;386.2;375.6;370.4;334.8;324.8;299.2;285;267;263.8;248.4;229.6;213.2;164.6;139.2;113;84.8;52;99;127;142.6;146.6;155.64;169.02;193.76;201.34;237.16;250.36;264.56;277.56;290.56;295.96;325.36;331.56;358.56;391.76;413.76;438.76;456.56;178.22;202.22;223.02;252.82;259.42;267.82;172.02;206.42;220.42;228.54;243.84;255.84;55.6;72.9;231.14;241.36;300.16;22;10;19.9;30.86;48.02;70.02;88.7;;149;273;281.1;380.4</v>
       </c>
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>309.2</v>
@@ -14685,12 +14486,12 @@
       </c>
       <c r="BT65" t="str">
         <f t="shared" si="0"/>
-        <v>fribourg;309.2;298.6;293.4;257.8;247.8;222.2;208;190;186.8;171.4;152.6;136.2;87.6;62.2;36;64.2;97;144;172;187.6;191.6;200.64;214.02;238.76;246.34;282.16;295.36;309.56;322.56;335.56;340.96;370.36;376.56;403.56;436.76;458.76;483.76;501.56;223.22;247.22;268.02;297.82;304.42;312.82;217.02;251.42;265.42;273.54;288.84;300.84;100.6;117.9;276.14;286.36;345.16;127;139;148.9;159.86;177.02;199.02;217.7;149;;196;204.1;303.4;309.2;298.6;293.4;257.8;247.8;222.2;208;190;186.8;171.4;152.6;136.2;87.6;62.2;36;64.2;97;144;172;187.6;191.6;200.64;214.02;238.76;246.34;282.16;295.36;309.56;322.56;335.56;340.96;370.36;376.56;403.56;436.76;458.76;483.76;501.56;223.22;247.22;268.02;297.82;304.42;312.82;217.02;251.42;265.42;273.54;288.84;300.84;100.6;117.9;276.14;286.36;345.16;127;139;148.9;159.86;177.02;199.02;217.7;149;;196;204.1;303.4</v>
+        <v>fribourg;309.2;298.6;293.4;257.8;247.8;222.2;208;190;186.8;171.4;152.6;136.2;87.6;62.2;36;64.2;97;144;172;187.6;191.6;200.64;214.02;238.76;246.34;282.16;295.36;309.56;322.56;335.56;340.96;370.36;376.56;403.56;436.76;458.76;483.76;501.56;223.22;247.22;268.02;297.82;304.42;312.82;217.02;251.42;265.42;273.54;288.84;300.84;100.6;117.9;276.14;286.36;345.16;127;139;148.9;159.86;177.02;199.02;217.7;149;;196;204.1;303.4</v>
       </c>
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>125.2</v>
@@ -14892,12 +14693,12 @@
       </c>
       <c r="BT66" t="str">
         <f t="shared" ref="BT66:BT68" si="1">CONCATENATE(A66,";",B66,";",C66,";",D66,";",E66,";",F66,";",G66,";",H66,";",I66,";",J66,";",K66,";",L66,";",M66,";",N66,";",O66,";",P66,";",Q66,";",R66,";",S66,";",T66,";",U66,";",V66,";",W66,";",X66,";",Y66,";",Z66,";",AA66,";",AB66,";",AC66,";",AD66,";",AE66,";",AF66,";",AG66,";",AH66,";",AI66,";",AJ66,";",AK66,";",AL66,";",AM66,";",AN66,";",AO66,";",AP66,";",AQ66,";",AR66,";",AS66,";",AT66,";",AU66,";",AV66,";",AW66,";",AX66,";",AY66,";",AZ66,";",BA66,";",BB66,";",BC66,";",BD66,";",BE66,";",BF66,";",BG66,";",BH66,";",BI66,";",BJ66,";",BK66,";",BL66,";",BM66,";",BN66,";",BO66,";",BP66)</f>
-        <v>crissier;125.2;114.6;109.4;73.8;63.8;38.2;24;6;9.2;24.6;43.4;59.8;108.4;133.8;160;188.2;221;268;296;311.6;315.6;324.64;338.02;362.76;370.34;406.16;419.36;433.56;446.56;459.56;464.96;494.36;500.56;527.56;560.76;582.76;607.76;625.56;347.22;371.22;392.02;421.82;428.42;436.82;341.02;375.42;389.42;397.54;412.84;424.84;224.6;241.9;400.14;410.36;469.16;251;263;272.9;283.86;301.02;323.02;341.7;273;196;;8.1;119.4;125.2;114.6;109.4;73.8;63.8;38.2;24;6;9.2;24.6;43.4;59.8;108.4;133.8;160;188.2;221;268;296;311.6;315.6;324.64;338.02;362.76;370.34;406.16;419.36;433.56;446.56;459.56;464.96;494.36;500.56;527.56;560.76;582.76;607.76;625.56;347.22;371.22;392.02;421.82;428.42;436.82;341.02;375.42;389.42;397.54;412.84;424.84;224.6;241.9;400.14;410.36;469.16;251;263;272.9;283.86;301.02;323.02;341.7;273;196;;8.1;119.4</v>
+        <v>crissier;125.2;114.6;109.4;73.8;63.8;38.2;24;6;9.2;24.6;43.4;59.8;108.4;133.8;160;188.2;221;268;296;311.6;315.6;324.64;338.02;362.76;370.34;406.16;419.36;433.56;446.56;459.56;464.96;494.36;500.56;527.56;560.76;582.76;607.76;625.56;347.22;371.22;392.02;421.82;428.42;436.82;341.02;375.42;389.42;397.54;412.84;424.84;224.6;241.9;400.14;410.36;469.16;251;263;272.9;283.86;301.02;323.02;341.7;273;196;;8.1;119.4</v>
       </c>
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="B67">
         <v>133.30000000000001</v>
@@ -15099,12 +14900,12 @@
       </c>
       <c r="BT67" t="str">
         <f t="shared" si="1"/>
-        <v>lausanne-malley;133.3;122.7;117.5;81.9;71.9;46.3;32.1;14.1;17.3;32.7;51.5;67.9;116.5;141.9;168.1;196.3;229.1;276.1;304.1;319.7;323.7;332.74;346.12;370.86;378.44;414.26;427.46;441.66;454.66;467.66;473.06;502.46;508.66;535.66;568.86;590.86;615.86;633.66;355.32;379.32;400.12;429.92;436.52;444.92;349.12;383.52;397.52;405.64;420.94;432.94;232.7;250;408.24;418.46;477.26;259.1;271.1;281;291.96;309.12;331.12;349.8;281.1;204.1;8.1;;127.5;133.3;122.7;117.5;81.9;71.9;46.3;32.1;14.1;17.3;32.7;51.5;67.9;116.5;141.9;168.1;196.3;229.1;276.1;304.1;319.7;323.7;332.74;346.12;370.86;378.44;414.26;427.46;441.66;454.66;467.66;473.06;502.46;508.66;535.66;568.86;590.86;615.86;633.66;355.32;379.32;400.12;429.92;436.52;444.92;349.12;383.52;397.52;405.64;420.94;432.94;232.7;250;408.24;418.46;477.26;259.1;271.1;281;291.96;309.12;331.12;349.8;281.1;204.1;8.1;;127.5</v>
+        <v>lausanne-malley;133.3;122.7;117.5;81.9;71.9;46.3;32.1;14.1;17.3;32.7;51.5;67.9;116.5;141.9;168.1;196.3;229.1;276.1;304.1;319.7;323.7;332.74;346.12;370.86;378.44;414.26;427.46;441.66;454.66;467.66;473.06;502.46;508.66;535.66;568.86;590.86;615.86;633.66;355.32;379.32;400.12;429.92;436.52;444.92;349.12;383.52;397.52;405.64;420.94;432.94;232.7;250;408.24;418.46;477.26;259.1;271.1;281;291.96;309.12;331.12;349.8;281.1;204.1;8.1;;127.5</v>
       </c>
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B68">
         <v>15.4</v>
@@ -15306,7 +15107,7 @@
       </c>
       <c r="BT68" t="str">
         <f t="shared" si="1"/>
-        <v>zimeysa-meyrin;15.4;4.8;10;45.6;55.6;81.2;95.4;113.4;116.6;132;150.8;167.2;215.8;241.2;267.4;295.6;328.4;375.4;403.4;419;423;432.04;445.42;470.16;477.74;513.56;526.76;540.96;553.96;566.96;572.36;601.76;607.96;634.96;668.16;690.16;715.16;732.96;454.62;478.62;499.42;529.22;535.82;544.22;448.42;482.82;496.82;504.94;520.24;532.24;332;349.3;507.54;517.76;576.56;358.4;370.4;380.3;391.26;408.42;430.42;449.1;380.4;303.4;119.4;127.5;;15.4;4.8;10;45.6;55.6;81.2;95.4;113.4;116.6;132;150.8;167.2;215.8;241.2;267.4;295.6;328.4;375.4;403.4;419;423;432.04;445.42;470.16;477.74;513.56;526.76;540.96;553.96;566.96;572.36;601.76;607.96;634.96;668.16;690.16;715.16;732.96;454.62;478.62;499.42;529.22;535.82;544.22;448.42;482.82;496.82;504.94;520.24;532.24;332;349.3;507.54;517.76;576.56;358.4;370.4;380.3;391.26;408.42;430.42;449.1;380.4;303.4;119.4;127.5;</v>
+        <v>zimeysa-meyrin;15.4;4.8;10;45.6;55.6;81.2;95.4;113.4;116.6;132;150.8;167.2;215.8;241.2;267.4;295.6;328.4;375.4;403.4;419;423;432.04;445.42;470.16;477.74;513.56;526.76;540.96;553.96;566.96;572.36;601.76;607.96;634.96;668.16;690.16;715.16;732.96;454.62;478.62;499.42;529.22;535.82;544.22;448.42;482.82;496.82;504.94;520.24;532.24;332;349.3;507.54;517.76;576.56;358.4;370.4;380.3;391.26;408.42;430.42;449.1;380.4;303.4;119.4;127.5;</v>
       </c>
     </row>
   </sheetData>
